--- a/Assets/Data/final_detail_data.xlsx
+++ b/Assets/Data/final_detail_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VRChatProjects\GeoGuesser-China\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE78F7B-C0CD-4FF3-8517-6622FA215B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB2B1BA-D061-477B-BAE7-4C26BCCEE937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="1021">
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>latitude</t>
-  </si>
-  <si>
     <t>image_url</t>
   </si>
   <si>
-    <t>google_url</t>
-  </si>
-  <si>
     <t>cn_name</t>
   </si>
   <si>
@@ -1790,9 +1784,6 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/185.jpg</t>
-  </si>
-  <si>
-    <t>https://www.google.co.uk/maps/@30.6633065,104.0440364,3a,90y,59.7h,122.86t/data=!3m8!1e1!3m6!1sAF1QipOqQSFaSFF_IOqt7c0nKubH-sglyeul9MDYTpOq!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOqQSFaSFF_IOqt7c0nKubH-sglyeul9MDYTpOq%3Dw900-h600-k-no-pi-32.855013032505-ya211.70491309820773-ro0-fo100!7i10240!8i5120?entry=ttu&amp;g_ep=EgoyMDI1MDQyOS4wIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
     <t>Sichuan Chengdu  Qingyang District 琴台路 Wen Jun Mansion Hotel</t>
@@ -2288,6 +2279,884 @@
   </si>
   <si>
     <t>Yinchuan City, Helan County</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/208.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@32.1258548,114.0779143,3a,75y,3.53h,98.69t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgID404-4Dg!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZ003Nv1eZuV3t8fN5KboO6tasVbgl6JKKE-fIiX937vamJ4Y2PyGLuYFjOUiMt-mH4oSakj3SpTkOz_lPpXdnzzKEg6fWyhN6eiOMAYiDamq-xDJfZtzGkuOH5j6UrT8BmZErX%3Dw900-h600-k-no-pi-8.691972602933063-ya151.5275792463903-ro0-fo100!7i10240!8i3490?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@27.1296063,100.2392921,3a,75y,56.44h,97.85t/data=!3m8!1e1!3m6!1sAF1QipNKXgM82vADQEPf8RNZ6iHAwRCsGoiYdSVR6CN6!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNKXgM82vADQEPf8RNZ6iHAwRCsGoiYdSVR6CN6%3Dw900-h600-k-no-pi-7.8533402018570655-ya57.44427597549736-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@27.1894913,100.1022797,3a,75y,46.86h,82.42t/data=!3m8!1e1!3m6!1sAF1QipNMxT-FTtrn8LI2aiLJU_c_VhDrA8BsPP4-K5-s!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNMxT-FTtrn8LI2aiLJU_c_VhDrA8BsPP4-K5-s%3Dw900-h600-k-no-pi7.576823591925262-ya61.85678475058859-ro0-fo100!7i9728!8i4864?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@27.1838986,100.0521449,3a,75y,286.24h,96.62t/data=!3m8!1e1!3m6!1sAF1QipO75CBPps3AVWiGogScvAd5VAtjW2TN5_-ZlJXV!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipO75CBPps3AVWiGogScvAd5VAtjW2TN5_-ZlJXV%3Dw900-h600-k-no-pi-6.624461406890035-ya287.24404150216566-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@26.8654278,99.959,3a,75y,80.58h,92.99t/data=!3m8!1e1!3m6!1sAF1QipO_VITng-dcOMbUeBh8_Kw77ygNYVLRFpQoDGvX!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipO_VITng-dcOMbUeBh8_Kw77ygNYVLRFpQoDGvX%3Dw900-h600-k-no-pi-2.9884592609222267-ya46.920951805728215-ro0-fo100!7i8192!8i4096?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@34.5527153,112.469902,3a,75y,359.55h,105.76t/data=!3m8!1e1!3m6!1sAF1QipPc62GeCKu3o3_Jrw0xxEHxgT7F6UkEB4zpZdhM!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipPc62GeCKu3o3_Jrw0xxEHxgT7F6UkEB4zpZdhM%3Dw900-h600-k-no-pi-15.755629999999996-ya110.54663-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@33.9391494,111.678855,3a,75y,161.29h,90.72t/data=!3m8!1e1!3m6!1sAF1QipMkWTTKPNQV35r1k6sWk0u5D3UJi1EPEcn8WWQu!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMkWTTKPNQV35r1k6sWk0u5D3UJi1EPEcn8WWQu%3Dw900-h600-k-no-pi-0.7158923890317794-ya226.29239492554754-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@31.3129842,120.6091614,3a,75y,32.52h,91.96t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICk7IvF3QE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZ23otKc9sC7yt9eDY-6UG9cyhxdIs1nSLKlUQ1YfiZaoPFnZwcjKZu-yLaG_BafoewEd4jzRUDuj6t1OcL7OahZdCi1uqnrCYRWCYjgESr1C8BKwMKlcNCH-6TqcWW6ekrUxGH8A%3Dw900-h600-k-no-pi-1.9591530440384588-ya232.51992813736462-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@31.3151613,120.6047521,3a,75y,289.69h,83.71t/data=!3m8!1e1!3m6!1sAF1QipNWddM3GzYkT9rGqgpC6-ibV4Y8RB-osM0SWX5C!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNWddM3GzYkT9rGqgpC6-ibV4Y8RB-osM0SWX5C%3Dw900-h600-k-no-pi6.294769460622831-ya293.6928625662432-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@31.3182182,120.5888627,3a,75y,106.76h,100.19t/data=!3m8!1e1!3m6!1sAF1QipMsTfKyt9wNwSuhGSUp66kn648RmUY_ruYfNigE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMsTfKyt9wNwSuhGSUp66kn648RmUY_ruYfNigE%3Dw900-h600-k-no-pi-10.187203112959907-ya107.76193670497972-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E8%8B%8F%E5%B7%9E%E6%96%87%E5%8C%96%E8%89%BA%E6%9C%AF%E4%B8%AD%E5%BF%83/@31.321886,120.702588,3a,75y,112.44h,93.27t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIC4w97ZVQ!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYZMTdQ0fqt5PGSQHrLkTTQYl87a1X53klKS0HCyFqebjIzLkOYYXzypOpgq43StBJ5kDPazwCrRq5Yu-5O9L_SkczY6jV5n2gJW7_DI_vj9flhFNZF5KNmXCd5yPTDWoobwmd7%3Dw900-h600-k-no-pi-3.265999106589959-ya156.44300659858231-ro0-fo100!7i8000!8i4000!4m10!1m2!2m1!1z5Lit5Zu95pmv54K5IOiLj-W3ng!3m6!1s0x35b3a61a5a8dca57:0xc29d6f2149f3caf!8m2!3d31.321186!4d120.702186!15sChPkuK3lm73mma_ngrkg6IuP5beeWhYiFOS4reWbvSDmma_ngrkg6IuP5beekgEPY3VsdHVyYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ1YzA5RFJrdFJFQUWqAUkQASoKIgbmma_ngrkoEDIfEAEiGxVy3YnCg8R9Fm8Tplj9ffYpUG0TqsLPuDs3mTIYEAIiFOS4reWbvSDmma_ngrkg6IuP5bee4AEA-gEECAAQIw!16s%2Fm%2F0pc5_k8?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E8%8B%8F%E5%B7%9E%E5%B9%B3%E6%B1%9F%E5%8E%86%E5%8F%B2%E6%96%87%E5%8C%96%E8%A1%97%E5%8C%BA/@31.3094486,120.6393479,3a,75y,225.64h,99.37t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICEzvCs7gE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZmJBJS-xlUK26AdQeqnPUfo_gERB4c9T61O_4lhDe5ED513NXsvoNTHSbZklnNN28qBm9jETJOwztUb2V_JF4XF8UzB5bw0_IlMKqOS-BvRRtH3C_DKUkxz-B11hyDYqrSR1MN6A%3Dw900-h600-k-no-pi-9.370967551106247-ya237.63678192028394-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5Lit5Zu95pmv54K5IOiLj-W3ng!3m6!1s0x35b3a7270412473b:0x86aba79f77ae621c!8m2!3d31.309589!4d120.634804!15sChPkuK3lm73mma_ngrkg6IuP5beeWhYiFOS4reWbvSDmma_ngrkg6IuP5beekgENbmF0aW9uYWxfcGFya6oBSRABKgoiBuaZr-eCuSgQMh8QASIbFXLdicKDxH0WbxOmWP199ilQbROqws-4OzeZMhgQAiIU5Lit5Zu9IOaZr-eCuSDoi4_lt57gAQA!16s%2Fg%2F11cnp5t7j1?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E7%81%B5%E5%B1%B1%E5%A4%A7%E4%BD%9B/@31.4318195,120.0915737,3a,75y,5.6h,119.13t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDqi8qHUw!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZauUBCWqvMcEP_Za6FnIIAwRF5pLFutqDgof5Rw9r0yVJERlj0W9cBprpgAcRqeYNDNIkOZia0uH-l5-zsE85i1cFIWZ64P8n0J4DLi5qsQlnYJ8F3uWnu8DsQ-xF7KnIR5iGw%3Dw900-h600-k-no-pi-29.133108281863556-ya17.597752671481146-ro0-fo100!7i10240!8i5120!4m10!1m2!2m1!1z5Lit5Zu95pmv54K55peg6ZSh!3m6!1s0x35b47e4781eef6bb:0xe462a496dadcb2b!8m2!3d31.4321066!4d120.0915578!15sChLkuK3lm73mma_ngrnml6DplKFaFiIU5Lit5Zu9IOaZr-eCuSDml6DplKGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkdPRmwyWldKM0VBRaoBSRABKgoiBuaZr-eCuSgQMh8QASIbebG11kWoh5lUGDd1G8wP-Ic2n4Ot3ETT_KR-MhgQAiIU5Lit5Zu9IOaZr-eCuSDml6DplKHgAQD6AQQIABAh!16s%2Fm%2F025xc8r?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E6%9C%9B%E6%B9%96%E9%97%A8/@31.5648859,120.3065952,3a,75y,7.29h,91.22t/data=!3m8!1e1!3m6!1sAF1QipMUTmYpjaAOITh5X3zpOpHDDOxczD0Pdz7-8cGc!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMUTmYpjaAOITh5X3zpOpHDDOxczD0Pdz7-8cGc%3Dw900-h600-k-no-pi-1.2185780884931603-ya76.2946658893116-ro0-fo100!7i6144!8i3072!4m10!1m2!2m1!1z5Lit5Zu95pmv54K55peg6ZSh!3m6!1s0x35b38e52f66241a3:0x2072dc32a4f8be09!8m2!3d31.5654654!4d120.3070913!15sChLkuK3lm73mma_ngrnml6DplKGSARJ0b3VyaXN0X2F0dHJhY3Rpb26qAUkQASoKIgbmma_ngrkoEDIfEAEiG3mxtdZFqIeZVBg3dRvMD_iHNp-DrdxE0_ykfjIYEAIiFOS4reWbvSDmma_ngrkg5peg6ZSh4AEA!16s%2Fg%2F119pfqdv6?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E6%B8%85%E5%90%8D%E6%A1%A5%E5%8F%A4%E8%BF%90%E6%B2%B3%E8%A1%97%E5%8C%BA/@31.5556797,120.3177573,3a,75y,166.11h,84.73t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDc8_SXCg!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZ6sN1Ln0yBRmjV6GkgxCgcI9tbHJ6QU8f3BQYfk44kuzD2j8p0gxMypjEgr69Gnq6iAN_S8_-khoIzSlIaibpfZxIzMUzuoemKleTOp-9pj62skD_xy1e13Rf0n-lqXNfwc3WP%3Dw900-h600-k-no-pi5.26935826504976-ya166.10565540809435-ro0-fo100!7i5660!8i2830!4m10!1m2!2m1!1z5Lit5Zu95pmv54K55peg6ZSh!3m6!1s0x35b38fb5d30416e9:0x42a9f585b4cf592a!8m2!3d31.555662!4d120.317743!15sChLkuK3lm73mma_ngrnml6DplKFaFiIU5Lit5Zu9IOaZr-eCuSDml6DplKGSARJ0b3VyaXN0X2F0dHJhY3Rpb26qAUkQASoKIgbmma_ngrkoEDIfEAEiG3mxtdZFqIeZVBg3dRvMD_iHNp-DrdxE0_ykfjIYEAIiFOS4reWbvSDmma_ngrkg5peg6ZSh4AEA!16s%2Fg%2F155pd6dd?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@31.0192661,120.2832108,3a,75y,67.49h,79.62t/data=!3m8!1e1!3m6!1sAF1QipNSJWns81Lwa_yFssQDWGB5N-iuu-rfADkMTgAm!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNSJWns81Lwa_yFssQDWGB5N-iuu-rfADkMTgAm%3Dw900-h600-k-no-pi10.383301062565195-ya67.48874738699786-ro0-fo100!7i7070!8i3535?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@32.94625,117.409742,3a,75y,285.17h,101.98t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICRzvegwgE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6Hbf5gW5sIGB7EEGdatcizLecwzdYbC2CLKhgCMnUnxE-sGUTIS5KN6wsQY6dSl6u38ENq4DjS0KpEnwM70DMXj2TpAs31297mK0kL0g9bPhlRE4un_iVGBgjNvlFwptZKDMcQgT%3Dw900-h600-k-no-pi-11.978499866212076-ya312.1656374899815-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@32.913212,117.449486,3a,75y,357.94h,79.67t/data=!3m8!1e1!3m6!1sAF1QipONB726NoLpAvi5uHODLk7GPCYByDkhEm-PRKHP!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipONB726NoLpAvi5uHODLk7GPCYByDkhEm-PRKHP%3Dw900-h600-k-no-pi10.327605108600778-ya357.9366797617625-ro0-fo100!7i4096!8i2048?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@43.8566093,125.3035126,3a,75y,204.99h,90.1t/data=!3m8!1e1!3m6!1sAF1QipMq8obGaZ0DLCpSuuJo2xo0zcMA3NR7JjqQaaTz!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMq8obGaZ0DLCpSuuJo2xo0zcMA3NR7JjqQaaTz%3Dw900-h600-k-no-pi-0.09772889042109512-ya290.9935421175585-ro0-fo100!7i7680!8i3376?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@28.2377281,113.0542068,3a,75y,358.87h,120t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDM_OPxEA!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYbschuyA_0M_I-zS2xTggUNV-3O0eJgwQz347NxiY10z0ySUFMJTP9XsE-NW3q-AUlUlvLz8yZ7AfVd4BVI0McUVKavl_0bD00CSUqPwJFJ1xV74Q6n3k46hYTtnvXFAslnGk%3Dw900-h600-k-no-pi-30-ya358.8743-ro0-fo100!7i5760!8i2880?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%B2%B3%E9%BA%93%E4%B9%A6%E9%99%A2/@28.178915,112.94395,3a,75y,212.58h,89.67t/data=!3m8!1e1!3m6!1sAF1QipO8PbGCjP2mA5d8M5ARH981PGJTxWZZVxMpA9T7!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipO8PbGCjP2mA5d8M5ARH981PGJTxWZZVxMpA9T7%3Dw900-h600-k-no-pi0.3301010947216554-ya212.58479419617382-ro0-fo100!7i7296!8i3648!4m10!1m2!2m1!1z6ZW_5rKZIOaZr-eCuQ!3m6!1s0x34274b10fbacddf7:0xfca6fbf7e79160d!8m2!3d28.180564!4d112.941025!15sCg3plb_mspkg5pmv54K5Wg8iDemVv-aymSDmma_ngrmSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjJkVFpsUkRaM1JSQUKqAUEQASoKIgbmma_ngrkoEDIeEAEiGnjuBsk7CuCpxsltPf1FmmbfaXi1LbYscig1MhEQAiIN6ZW_5rKZIOaZr-eCueABAPoBBAgAECQ!16zL20vMDE3ajdr?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@28.1658193,112.9601967,3a,75y,54.81h,90t/data=!3m8!1e1!3m6!1sAF1QipOAJMIL7iORatStaRnfGN_ZbWpi7dwv-6HKZzqP!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOAJMIL7iORatStaRnfGN_ZbWpi7dwv-6HKZzqP%3Dw900-h600-k-no-pi0-ya63.805904900062274-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%A4%A9%E5%BF%83%E9%98%81/@28.183687,112.981369,3a,75y,269.86h,90.07t/data=!3m8!1e1!3m6!1sAF1QipPtmGS4OW-v0NdouCvklCBHrTHCIuXFMOZI4tt5!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipPtmGS4OW-v0NdouCvklCBHrTHCIuXFMOZI4tt5%3Dw900-h600-k-no-pi-0.0680684046345732-ya269.8641137962582-ro0-fo100!7i5760!8i2880!4m10!1m2!2m1!1z6ZW_5rKZIOaZr-eCuQ!3m6!1s0x34274a898c089591:0x4a25b0e32ea7f98!8m2!3d28.183687!4d112.981369!15sCg3plb_mspkg5pmv54K5Wg8iDemVv-aymSDmma_ngrmSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXhiRGcyUjFOQkVBRaoBQRABKgoiBuaZr-eCuSgQMh4QASIaeO4GyTsK4KnGyW09_UWaZt9peLUttixyKDUyERACIg3plb_mspkg5pmv54K54AEA-gEECAAQCQ!16s%2Fg%2F155qs8t9?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@28.5989504,112.3341219,3a,75y,241.45h,107.88t/data=!3m8!1e1!3m6!1sAF1QipN6r64FXTCP9HqD2VBGOOMWTpC2ZntnKPG1PhHi!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipN6r64FXTCP9HqD2VBGOOMWTpC2ZntnKPG1PhHi%3Dw900-h600-k-no-pi-17.883797950661503-ya337.45090885634886-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@28.5819945,112.4259134,3a,75y,233.07h,90.25t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDqptq3Zg!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HblMywWN8NLaRPO8nDRWRgzKkR-jXBwbYuGSNAPzoTNlJb-Z7ZtgZV6381stk6UdWsiFA6TtXP0V5G79YFQtP8T57EJZR6fndkqolGKmx6qa4dMCyoH3fnGBE8TYRkEAC_gCYVS%3Dw900-h600-k-no-pi-0.24612786064011516-ya278.0708129529874-ro0-fo100!7i11264!8i5632?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@31.824337,119.9998398,3a,75y,127.08h,92.99t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgID4zsqPLA!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6Hbl9qu5d4f1nmfpDkK1RINQTURpA1u-i94SXm0XmRsrC4JP4pXzxKKnY_7hNDWka3h6Gqs9Bzf621t6DtFOd-CCsXWPRDROyoe86AOajdRIrVnuVAfIANvGOGWogfKVw5a20Xk%3Dw900-h600-k-no-pi-2.9915689316409697-ya167.07643470028964-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%A4%A9%E7%9B%AE%E6%B9%96%E9%A3%8E%E6%99%AF%E5%8C%BA/@31.236109,119.581404,3a,75y,313.85h,102.48t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgID7lfGeAQ!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYjaSECM4dkcvUjpTDF_iJ9UuR0sFWZSnU6wplFisb0rHO5Qk7cccEfN3R2rC-XV4osWteCzxp_gWhuB8Tmm8_ZaSAdFpTBwJJr878kBpqFgj3-oRLkSgNGGt2yyafNtC372E5N%3Dw900-h600-k-no-pi-12.479652224751874-ya313.8526413203496-ro0-fo100!7i18016!8i9008!4m10!1m2!2m1!1z5bi45bee5biCIOaZr-WMug!3m6!1s0x35b4f21e7b0a0e8f:0x61ea08e06f2e28f!8m2!3d31.3171555!4d119.4437647!15sChDluLjlt57luIIg5pmv5Yy6WhMiEeW4uOW3niDluIIg5pmv5Yy6kgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU40ZDJGaFVEZG5SUkFCqgFGEAEqCiIG5pmv5Yy6KBAyHxABIht0re1msN3zjPK74wJUVppXarsPslx7n8vATXgyFRACIhHluLjlt54g5biCIOaZr-WMuuABAPoBBAgAEAk!16s%2Fg%2F1tfkj683?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E8%8C%85%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%8C%BA/@31.7840284,119.3098569,3a,75y,88.5h,108.99t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDqy9X7Lg!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HbFmxSChms9DWwVINOSZ8U3pV0ADqu94lYtWG-O-o5gQ3Hl3go2oqgxjT8LUCokTxDtHAmRQC3fIe4nrVd71XYc1WooXA7ik8ktO_UUQ1BO_RWgyy28akJKKCKW6VkHuYS042IN%3Dw900-h600-k-no-pi-18.98990388172544-ya156.50359580519404-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5bi45bee5biCIOaZr-WMug!3m6!1s0x35b5b1f31fe63919:0xed6d3cc6dd096227!8m2!3d31.794751!4d119.316353!15sChDluLjlt57luIIg5pmv5Yy6kgENbmF0aW9uYWxfcGFya6oBRhABKgoiBuaZr-WMuigQMh8QASIbdK3tZrDd84zyu-MCVFaaV2q7D7Jce5_LwE14MhUQAiIR5bi45beeIOW4giDmma_ljLrgAQA!16s%2Fg%2F11fgjjj0bc?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@30.8972974,103.5719468,3a,75y,319.72h,91.65t/data=!3m8!1e1!3m6!1sAF1QipO7-NRxuBdtnaW80TCj2TsqCeGVMlsoUn7Oh73E!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipO7-NRxuBdtnaW80TCj2TsqCeGVMlsoUn7Oh73E%3Dw900-h600-k-no-pi-1.6516901015810532-ya21.717995274606892-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@30.8976173,103.5837631,3a,75y,91.47h,82.67t/data=!3m8!1e1!3m6!1sAF1QipOb0hsLd2p1SH4kKSv1UG5nxb4WIWD-VEWkv1E2!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOb0hsLd2p1SH4kKSv1UG5nxb4WIWD-VEWkv1E2%3Dw900-h600-k-no-pi7.329094152249894-ya91.46993187579682-ro0-fo100!7i5376!8i2688?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%BB%84%E9%BE%99%E6%BA%AA%E5%8F%A4%E9%95%87%E6%97%85%E6%B8%B8%E6%99%AF%E5%8C%BA%EF%BC%88%E4%B8%9C%E5%8C%97%E9%97%A8%EF%BC%89/@30.3226971,103.9662633,3a,75y,312.83h,103.63t/data=!3m8!1e1!3m6!1sAF1QipP9T3dKVVHTun9hbVjoLSdH37gNrmi5RFRbH2XU!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipP9T3dKVVHTun9hbVjoLSdH37gNrmi5RFRbH2XU%3Dw900-h600-k-no-pi-13.626910524690942-ya45.82703193117345-ro0-fo100!7i4608!8i2304!4m10!1m2!2m1!1z5oiQ6YO95biCIOaZr-WMug!3m6!1s0x36efa32b7bdf9093:0xbcfe2794d2607779!8m2!3d30.322155!4d103.96615!15sChDmiJDpg73luIIg5pmv5Yy6WhMiEeaIkOmDvSDluIIg5pmv5Yy6kgENbmF0aW9uYWxfcGFya6oBRRABKgoiBuaZr-WMuigQMh4QASIaNi_vVaJeEd7qIhzjZqW9E1cpJULCqfTbHGUyFRACIhHmiJDpg70g5biCIOaZr-WMuuABAA!16s%2Fg%2F11cm1lcgx6?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E6%B4%AA%E5%B4%96%E6%B4%9E%E6%B0%91%E4%BF%97%E9%A3%8E%E8%B2%8C%E5%8C%BA/@29.562284,106.578475,3a,90y,226.8h,106.71t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgID4m9O1gwE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HaEVIXbxnYYwRPwrLgnJzYgLU1AIZs4-1X9K_3FHwM3VF83bPgkk1NkeZwmzPW62L-NptsgISpl_HOZm2z4tiIAKUQvJsSMwMYyYeS6gi6KQ0YoAjLtGMkjE4YpOmls0HOBs6Wi2Q%3Dw900-h600-k-no-pi-16.711109099891473-ya134.80136380335932-ro0-fo100!7i5376!8i2688!4m10!1m2!2m1!1z6YeN5bqG5biCIOaZr-eCuQ!3m6!1s0x36933481af2a66c3:0x611a408838df4c0!8m2!3d29.562273!4d106.579177!15sChDph43luobluIIg5pmv54K5WhMiEemHjeW6hiDluIIg5pmv54K5kgEKYXR0cmFjdGlvbqoBRRABKgoiBuaZr-eCuSgQMh4QASIaqV2SZAhwSeAeibOajfMfQA_GNiRewP5EpzcyFRACIhHph43luoYg5biCIOaZr-eCueABAA!16s%2Fg%2F11jg8p8p9s?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@32.021719,118.79187,3a,75y,180h,90t/data=!3m8!1e1!3m6!1sAF1QipNzhBrJHL4c9a-nEY-58tjpMQ4mSPZqzNycTSXj!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNzhBrJHL4c9a-nEY-58tjpMQ4mSPZqzNycTSXj%3Dw900-h600-k-no-pi0-ya22-ro0-fo100!7i8384!8i4192?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E7%89%9B%E9%A6%96%E5%B1%B1%E6%96%87%E5%8C%96%E6%97%85%E6%B8%B8%E5%8C%BA/@31.913991,118.746648,3a,75y,223.12h,91.41t/data=!3m8!1e1!3m6!1sAF1QipO5uaSuzHgp_fgW7Wg7qI7OoMjbUrPBXfkfVb3k!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipO5uaSuzHgp_fgW7Wg7qI7OoMjbUrPBXfkfVb3k%3Dw900-h600-k-no-pi-1.4055705056667591-ya216.12307451610604-ro0-fo100!7i9836!8i3253!4m10!1m2!2m1!1z5Y2X5LqsIOaZr-eCuQ!3m6!1s0x35b5861efa594735:0x4e2caba2186251b2!8m2!3d31.913991!4d118.746648!15sCg3ljZfkuqwg5pmv54K5Wg8iDeWNl-S6rCDmma_ngrmSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTldjWFl5UW1aM0VBRaoBQRABKgoiBuaZr-eCuSgQMh4QASIaNRP8DZUpbAX6kPniWzcQcJi5G0B3XlzHxswyERACIg3ljZfkuqwg5pmv54K54AEA-gEECAAQHQ!16s%2Fg%2F11c5s9pqk6?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%8D%97%E4%BA%AC%E5%9F%8E%E5%A2%99/@32.025876,118.825279,3a,75y,40.1h,83t/data=!3m8!1e1!3m6!1sAF1QipPQW_iVU4IE1gU5a6G76L-CeffnoqHDHpCefaaF!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipPQW_iVU4IE1gU5a6G76L-CeffnoqHDHpCefaaF%3Dw900-h600-k-no-pi7.000206720020046-ya205.10228488140206-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5Y2X5Lqs5pmv54K5!3m6!1s0x35b58d088527d481:0x82c9a85290abb591!8m2!3d32.025876!4d118.825279!15sCgzljZfkuqzmma_ngrlaDyIN5Y2X5LqsIOaZr-eCuZIBEnRvdXJpc3RfYXR0cmFjdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTWEzSlVhVk5CRUFFqgFBEAEqCiIG5pmv54K5KBAyHhABIho1E_wNlSlsBfqQ-eJbNxBwmLkbQHdeXMfGzDIREAIiDeWNl-S6rCDmma_ngrngAQD6AQQIABAK!16zL20vMGIzamc3?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@32.0621625,118.855648,3a,75y,101.82h,106.34t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICEgN7OPw!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZiu5tvbaQ8TlPoN6OVvQY_4ONWpKoxb1rXxPdkN_6uUdNJzjWHJaPfNhqHbMXJQaWGflcsOzG0oBsUzlL8tbvYlNWz_IG2mWkK5t469OywKC8m2m1-OamHm3vYsivLn1qvUVvx%3Dw900-h600-k-no-pi-16.338181394861962-ya101.81946549716592-ro0-fo100!7i10240!8i5120?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E7%8B%BC%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%90%8D%E8%83%9C%E5%8C%BA/@31.9167006,120.7360027,3a,75y,149.01h,88.69t/data=!3m8!1e1!3m6!1sAF1QipMq5TFY9oaIuMtifLkZbkLvG4JCUDMUzHzEMKP9!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMq5TFY9oaIuMtifLkZbkLvG4JCUDMUzHzEMKP9%3Dw900-h600-k-no-pi1.314113922007195-ya122.01393590594662-ro0-fo100!7i10240!8i5120!4m10!1m2!2m1!1z5Y2X6YCaIOaZr-WMug!3m6!1s0x35b178ac43a8c6dd:0xf6299932884d89ee!8m2!3d31.948954!4d120.888431!15sCg3ljZfpgJog5pmv5Yy6Wg8iDeWNl-mAmiDmma_ljLqSAQ1uYXRpb25hbF9wYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LTVdWNVpEaG5SUkFCqgFCEAEqCiIG5pmv5Yy6KBAyHxABIht5TzOokCX-do-VoXm22CfooxYzSvyA6va7uVQyERACIg3ljZfpgJog5pmv5Yy64AEA-gEECAAQGg!16s%2Fg%2F1tk1x0pk?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@34.2345882,117.1310223,3a,75y,269.02h,86.27t/data=!3m8!1e1!3m6!1sAF1QipM6wGlOqINcIZ5kCpLi2Rf64M5t2PoVJv0jcJph!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipM6wGlOqINcIZ5kCpLi2Rf64M5t2PoVJv0jcJph%3Dw900-h600-k-no-pi3.7344692502912835-ya351.0181770748542-ro0-fo100!7i10240!8i5120?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%BA%8C%E5%8D%81%E5%9B%9B%E6%A1%A5%E6%99%AF%E5%8C%BA/@32.407446,119.416187,3a,75y,327.66h,82.11t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDRn47KnwE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HbETsOU0883mipnXD_DpCtDKdRXjMPgSwwp6nOSHL94x0qkCAWH-2ycvWgnBU-iguEYYqxsTc5msC3zLcQ5jAJmwyU-kL5ll60Dt5l0gmUmha7P2Lk7Vi5-B8uO6XhHQq5RVw1zPg%3Dw900-h600-k-no-pi7.888888056357061-ya241.66288933024657-ro0-fo100!7i8704!8i4352!4m6!3m5!1s0x35b67d566c1229b1:0xb132a71f34de6afa!8m2!3d32.407446!4d119.416187!16s%2Fg%2F11cm1jkj47?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@32.48629,119.9277954,3a,75y,260.3h,100.9t/data=!3m8!1e1!3m6!1sAF1QipPzM7dcHDIa2WdfCko3PExKyXKvII8YbLF1lsk0!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipPzM7dcHDIa2WdfCko3PExKyXKvII8YbLF1lsk0%3Dw900-h600-k-no-pi-10.900373395324436-ya238.29738529696056-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@32.4862,119.917736,3a,75y,169.33h,97.07t/data=!3m8!1e1!3m6!1sAF1QipMZ3kZtvdUlfFcqS-TQvjEsxpm-ouYDtf91d1CQ!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMZ3kZtvdUlfFcqS-TQvjEsxpm-ouYDtf91d1CQ%3Dw900-h600-k-no-pi-7.067547641425136-ya205.32728548657167-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E7%84%A6%E5%B1%B1%E6%99%AF%E5%8C%BA/@32.2401466,119.4799881,3a,75y,351.59h,85.54t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICU49nJCQ!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HaThyvt4J4rnThyKWHfzZBJh1OAY24pOcxLJPp_T4eEOvo76UR-YXkHknFwSTZTuODldjVX5GRGUk4Q3wHmvYAgWYnoJgPNeZ65CfoB76sbb8Hvh8H1s9AVitlyf3v2UMi7AK6A%3Dw900-h600-k-no-pi4.455070193552089-ya353.5890811889756-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z6ZWH5rGfIOaZr-WMug!3m6!1s0x35b681e0886f2bb1:0x8432e7564a32acdf!8m2!3d32.232327!4d119.488219!15sCg3plYfmsZ8g5pmv5Yy6kgENbmF0aW9uYWxfcGFya6oBQhABKgoiBuaZr-WMuigQMh8QASIbePB_XAGRnksb_idhCYBuI8v_CWBBITr27OwHMhEQAiIN6ZWH5rGfIOaZr-WMuuABAA!16s%2Fg%2F12cny0mzl?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E8%8C%85%E5%B1%B1%E6%99%AF%E5%8C%BA/@31.7835113,119.3099997,3a,75y,305.99h,89.78t/data=!3m8!1e1!3m6!1sAF1QipPpgv_F72y6JTyuic17kiVWOqu5zKrpUQgb8o86!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipPpgv_F72y6JTyuic17kiVWOqu5zKrpUQgb8o86%3Dw900-h600-k-no-pi0.22120821629495424-ya326.99255536116846-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z6ZWH5rGfIOaZr-WMug!3m6!1s0x35b5b1e15e716b2f:0xc7a2bb7b21ca9172!8m2!3d31.78163!4d119.307276!15sCg3plYfmsZ8g5pmv5Yy6kgENbmF0aW9uYWxfcGFya6oBQhABKgoiBuaZr-WMuigQMh8QASIbePB_XAGRnksb_idhCYBuI8v_CWBBITr27OwHMhEQAiIN6ZWH5rGfIOaZr-WMuuABAA!16s%2Fg%2F1tfnwmwz?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@33.9380493,118.2945862,3a,75y,146.17h,89.06t/data=!3m8!1e1!3m6!1sAF1QipOfm8l1Y6QSeo6KfnlSvdl_ORJmR-E8Dh4THM0P!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOfm8l1Y6QSeo6KfnlSvdl_ORJmR-E8Dh4THM0P%3Dw900-h600-k-no-pi0.9394838076958081-ya53.1652297517295-ro0-fo100!7i7168!8i3584?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@30.246055,120.14449,3a,75y,331.03h,71.79t/data=!3m8!1e1!3m6!1sAF1QipM5InGrk01KyMs97YtluDjJPLa0hKv4FQuwq5t4!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipM5InGrk01KyMs97YtluDjJPLa0hKv4FQuwq5t4%3Dw900-h600-k-no-pi18.210915945111253-ya331.03280274252205-ro0-fo100!7i8000!8i4000?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E7%81%B5%E9%9A%90%E6%99%AF%E5%8C%BA/@30.239695,120.099669,3a,75y,37.75h,91.21t/data=!3m8!1e1!3m6!1sAF1QipOS17BC-0Z3zAUhD8-m1Y3wAhvaZyqoh8NQEG4h!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOS17BC-0Z3zAUhD8-m1Y3wAhvaZyqoh8NQEG4h%3Dw900-h600-k-no-pi-1.2114461367743132-ya6.751482859785909-ro0-fo100!7i11520!8i5760!4m10!1m2!2m1!1z5p2t5beeIOaZr-WMug!3m6!1s0x344b7ccda03e1ad1:0xc67f0499cb50669f!8m2!3d30.239695!4d120.099669!15sCg3mna3lt54g5pmv5Yy6Wg8iDeadreW3niDmma_ljLqSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjJkamhIVW0xUlJSQUKqAUEQASoKIgbmma_ljLooEDIeEAEiGnpWaG2K2aiwsuCbnKQwHCtyMSuqK6oAsrUpMhEQAiIN5p2t5beeIOaZr-WMuuABAPoBBAgAEAk!16s%2Fg%2F113gx34vm?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E8%A5%BF%E6%B9%96%E9%A3%8E%E6%99%AF%E5%8C%BA/@30.2353441,120.1276063,3a,75y,214h,69.04t/data=!3m8!1e1!3m6!1sAF1QipNJJme29pe0a_g5iXRmfgeBjrOR1yZDoQyOjiHG!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNJJme29pe0a_g5iXRmfgeBjrOR1yZDoQyOjiHG%3Dw900-h600-k-no-pi20.95853564262582-ya28.99756910559651-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5p2t5beeIOaZr-WMug!3m6!1s0x344b7c57d27ab3f1:0x49289abc75554b5e!8m2!3d30.198854!4d120.103851!15sCg3mna3lt54g5pmv5Yy6Wg8iDeadreW3niDmma_ljLqSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm1hQzFoZGxkbkVBRaoBQRABKgoiBuaZr-WMuigQMh4QASIaelZobYrZqLCy4JucpDAcK3IxK6orqgCytSkyERACIg3mna3lt54g5pmv5Yy64AEA-gEECDgQFw!16s%2Fg%2F1vp6xxlr?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E6%9D%AD%E5%B7%9E%E9%BE%99%E9%97%A8%E5%8F%A4%E9%95%87%E6%99%AF%E5%8C%BA/@29.9013772,119.9469427,3a,75y,234.53h,87.25t/data=!3m8!1e1!3m6!1sAF1QipOrEdsqHD-9vI8BKXYeqDo-inVGMc9Rcb6iE4EB!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOrEdsqHD-9vI8BKXYeqDo-inVGMc9Rcb6iE4EB%3Dw900-h600-k-no-pi2.7469071240651033-ya173.5315239689527-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5p2t5beeIOaZr-WMug!3m6!1s0x344b904ad5eec951:0xb8640d50bd02fbfe!8m2!3d29.903218!4d119.948101!15sCg3mna3lt54g5pmv5Yy6kgENbmF0aW9uYWxfcGFya6oBQRABKgoiBuaZr-WMuigQMh4QASIaelZobYrZqLCy4JucpDAcK3IxK6orqgCytSkyERACIg3mna3lt54g5pmv5Yy64AEA!16s%2Fg%2F1tpb8pw4?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E6%9D%AD%E5%B7%9E%E9%BE%99%E9%97%A8%E5%8F%A4%E9%95%87%E6%99%AF%E5%8C%BA/@29.9049144,119.9451959,3a,75y,124.88h,87.04t/data=!3m8!1e1!3m6!1sAF1QipN45PQIEaDhcjU5O7oU_XqJEbEz6qcTurAyam7G!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipN45PQIEaDhcjU5O7oU_XqJEbEz6qcTurAyam7G%3Dw900-h600-k-no-pi2.9604238965797833-ya134.8815185447763-ro0-fo100!7i4608!8i2304!4m10!1m2!2m1!1z5p2t5beeIOaZr-WMug!3m6!1s0x344b904ad5eec951:0xb8640d50bd02fbfe!8m2!3d29.903218!4d119.948101!15sCg3mna3lt54g5pmv5Yy6kgENbmF0aW9uYWxfcGFya6oBQRABKgoiBuaZr-WMuigQMh4QASIaelZobYrZqLCy4JucpDAcK3IxK6orqgCytSkyERACIg3mna3lt54g5pmv5Yy64AEA!16s%2Fg%2F1tpb8pw4?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E8%8C%85%E5%AE%B6%E5%9F%A0%E6%99%AF%E5%8C%BA/@30.2430725,120.121994,3a,75y,302.57h,83.08t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIC49P7MOg!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HaZQ4qMdMiR6LH0itkP_M5-SVq9lSAuqaNgB7xa_CNtas_ePjfzSkm8EKvyPlC5Jvft9cY322MaBTWq67d4R8gDzaO9O2hEwaro2mP8wZojAGEfIlR_xsb5MNBQXONZIs7iWos%3Dw900-h600-k-no-pi6.9174608385446845-ya22.56590950675252-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5p2t5beeIOaZr-WMug!3m6!1s0x344b62cbe732480d:0x17cbcf9f2fe13c0!8m2!3d30.239175!4d120.1315008!15sCg3mna3lt54g5pmv5Yy6kgESdG91cmlzdF9hdHRyYWN0aW9uqgFBEAEqCiIG5pmv5Yy6KBAyHhABIhp6VmhtitmosLLgm5ykMBwrcjErqiuqALK1KTIREAIiDeadreW3niDmma_ljLrgAQA!16s%2Fg%2F1q5bkmv76?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@29.8755598,121.5104875,3a,75y,203.75h,88.77t/data=!3m8!1e1!3m6!1sAF1QipOv7BaKdGm7oDVIxbQ2XELrAhEhNzMTe1IG3bCz!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOv7BaKdGm7oDVIxbQ2XELrAhEhNzMTe1IG3bCz%3Dw900-h600-k-no-pi1.2335490115932117-ya208.75469821869325-ro0-fo100!7i10240!8i5120?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@29.8573793,121.5363098,3a,75y,85.41h,86.55t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICE9NGLvwE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZdFbBcrdcDQf7Ohts6ZLjK5Ub1HcFsWGNaOI6rn1iPNE2YTFhgF-fvKuY9P8O03R3a5YH7uNJMHoPxJUsbf9cSXpApYHz605WjzqKou29My5iAAV3WDMk01ztOkwtq6WA2meri5w%3Dw900-h600-k-no-pi3.4507293891344233-ya307.4143834143348-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@29.8793757,121.5565643,3a,75y,268.38h,100.37t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgID6_u2j6AE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYdryoQffd98duXdDPc6hYjqWlFAORUE00_u9rp-sIgNSnbEQGK3s47cAGGkah8DlpMOFgNTZtrRlbhMSUxkENReBCJrqpUmzHLzu7ntT4ZJzPwAkAFbiNGuRaN5-UGYNrfaylg2A%3Dw900-h600-k-no-pi-10.366901713440626-ya298.376692221653-ro0-fo100!7i8192!8i4096?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@29.8678052,121.5633922,3a,90y,269.1h,107.94t/data=!3m8!1e1!3m6!1sAF1QipMJrs67rw1DHIUnuFRW1wzlA0vCKq3mffljggM!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMJrs67rw1DHIUnuFRW1wzlA0vCKq3mffljggM%3Dw900-h600-k-no-pi-17.937848010104076-ya229.1021897697571-ro0-fo100!7i10240!8i5120?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E8%80%81%E5%A4%96%E6%BB%A9%E6%99%AF%E5%8C%BA/@29.8778027,121.5615126,3a,75y,123.27h,97.13t/data=!3m8!1e1!3m6!1sAF1QipPPvzSmO1uUfj8B4BDIJN3-VHQbCBF2h3GMQX0V!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipPPvzSmO1uUfj8B4BDIJN3-VHQbCBF2h3GMQX0V%3Dw900-h600-k-no-pi-7.130807922850252-ya192.2661245661284-ro0-fo100!7i11264!8i5632!4m10!1m2!2m1!1z5a6B5rOiIOaZr-WMug!3m6!1s0x344d63383e224de5:0x25af3cb35d7f92b1!8m2!3d29.875677!4d121.561292!15sCg3lroHms6Ig5pmv5Yy6Wg8iDeWugeazoiDmma_ljLqSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXhkWE5EVlhCUlJSQUKqAUEQASoKIgbmma_ljLooEDIeEAEiGju2CbA6xcR0kDLHgd4ik4pLlV8m-_SZ8nM8MhEQAiIN5a6B5rOiIOaZr-WMuuABAPoBBAgsEBc!16s%2Fg%2F11cnpgpnjv?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B8%AD%E5%9B%BD%E6%B1%9F%E8%8B%8F%E7%9C%81%E6%97%A0%E9%94%A1%E5%B8%82%E6%BB%A8%E6%B9%96%E5%8C%BA%E5%A4%AA%E6%B9%96%E6%99%AF%E5%8C%BA+%E9%82%AE%E6%94%BF%E7%BC%96%E7%A0%81:+214064/@31.5417697,120.2399866,3a,75y,229.15h,83.25t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDqnZLMag!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZnaeAuvf35bWdSglm6M8LCz6C1ZxRqJkR5QDqVjhYLth1uNxsjI2iPDgG_2nHtmKIbOiTlfdiresXMKeJd-urMhs-NSGeb9HrO4IRcVep6gZhxUND2PQ7AMLOyTrOvpmMqIUYF%3Dw900-h600-k-no-pi6.747277153269238-ya339.15178503458907-ro0-fo100!7i8704!8i4352!4m6!3m5!1s0x35b386420933cfc7:0xafadcb79120c7022!8m2!3d31.51563!4d120.227852!16s%2Fg%2F1tnbj4rl?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B8%AD%E5%9B%BD%E6%B1%9F%E8%8B%8F%E7%9C%81%E6%97%A0%E9%94%A1%E5%B8%82%E6%BB%A8%E6%B9%96%E5%8C%BA%E5%A4%AA%E6%B9%96%E6%99%AF%E5%8C%BA+%E9%82%AE%E6%94%BF%E7%BC%96%E7%A0%81:+214064/@31.2539731,120.4306635,3a,75y,5.7h,83.22t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICE7v6gcg!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZxfQGTb6iksuop8380KQnZmau-RZDYftWj1B_-qs8BOtbD0UpbW6c0hxMo0-5EcuqdCWQ295iWm-Vv9zLd79CpDnR45MfUyH8AS4enSoXkl3JznvAw8NYjyZBy708Zjbg9U6U%3Dw900-h600-k-no-pi6.776819103836914-ya210.7013784336553-ro0-fo100!7i10240!8i5120!4m6!3m5!1s0x35b386420933cfc7:0xafadcb79120c7022!8m2!3d31.51563!4d120.227852!16s%2Fg%2F1tnbj4rl?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B8%AD%E5%9B%BD%E6%B1%9F%E8%8B%8F%E7%9C%81%E6%97%A0%E9%94%A1%E5%B8%82%E6%BB%A8%E6%B9%96%E5%8C%BA%E5%A4%AA%E6%B9%96%E6%99%AF%E5%8C%BA+%E9%82%AE%E6%94%BF%E7%BC%96%E7%A0%81:+214064/@31.1134548,120.2554855,3a,75y,0.15h,79.66t/data=!3m8!1e1!3m6!1sAF1QipOTr3o1UsQXrRbfd0UjAlLL8NJKCp_mdQao3wMQ!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOTr3o1UsQXrRbfd0UjAlLL8NJKCp_mdQao3wMQ%3Dw900-h600-k-no-pi10.342159441641854-ya317.1469421398667-ro0-fo100!7i9728!8i4864!4m6!3m5!1s0x35b386420933cfc7:0xafadcb79120c7022!8m2!3d31.51563!4d120.227852!16s%2Fg%2F1tnbj4rl?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@28.3834724,121.1077652,3a,75y,280h,100t/data=!3m8!1e1!3m6!1sAF1QipOUCaoJp3AcaNZWxxmYL0U_hSanGBETkpxTwtTj!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOUCaoJp3AcaNZWxxmYL0U_hSanGBETkpxTwtTj%3Dw900-h600-k-no-pi-10-ya42-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@28.3574583,121.0431078,3a,75y,239.51h,106.23t/data=!3m8!1e1!3m6!1sAF1QipPcqDJanrXs5TkHyjwO_LAL1uQNmuY9KSDwEzj5!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipPcqDJanrXs5TkHyjwO_LAL1uQNmuY9KSDwEzj5%3Dw900-h600-k-no-pi-16.22637452954669-ya286.5115157806815-ro0-fo100!7i7680!8i3840?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@28.3661182,121.0394605,3a,75y,121.87h,91.46t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICE7r7bhAE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6Ha9V7XGVabB3OYwJnX6zXXPVOo64Uree4EsUVqKEeFOJAuaWEiY1N43k8w449sEqIKGLUOfEugid9bHROieY-CdYJEZqZK65PKggP47oFflXBseoHkcpxc1BiUXY6bXbMUaqirghw%3Dw900-h600-k-no-pi-1.4571242470687622-ya114.99281480709982-ro0-fo100!7i6912!8i3456?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@28.3895188,120.8969652,3a,75y,72.16h,79.27t/data=!3m8!1e1!3m6!1sAF1QipNEGCRfJ_fCss2ANwPOBQl0kM3NqgFOmwu_-rP8!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNEGCRfJ_fCss2ANwPOBQl0kM3NqgFOmwu_-rP8%3Dw900-h600-k-no-pi10.731593115000635-ya91.16352870170351-ro0-fo100!7i10240!8i5120?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%9B%9B%E6%B5%B7%E5%B1%B1%E6%99%AF%E5%8C%BA/@28.5493185,120.7465267,3a,75y,222.53h,76.75t/data=!3m8!1e1!3m6!1sAF1QipMlUiezk-apLknTBdMV_AgV_lQUhslUu74rIwra!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMlUiezk-apLknTBdMV_AgV_lQUhslUu74rIwra%3Dw900-h600-k-no-pi13.250516664825867-ya222.5268476400785-ro0-fo100!7i14000!8i7000!4m10!1m2!2m1!1z5rip5beeIOaZr-WMug!3m6!1s0x344f028d7e2f59fd:0x7f013df3e5dfe327!8m2!3d28.54932!4d120.746515!15sCg3muKnlt54g5pmv5Yy6kgESdG91cmlzdF9hdHRyYWN0aW9uqgFBEAEqCiIG5pmv5Yy6KBAyHhABIhqr-7_0eWkMLY0goRsLwIb-TXtrV0e5nPzXCDIREAIiDea4qeW3niDmma_ljLrgAQA!16s%2Fg%2F1tdc7jf8?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%9B%81%E6%B9%96%E6%99%AF%E5%8C%BA/@28.3661182,121.0394605,3a,75y,11.84h,72.69t/data=!3m8!1e1!3m6!1sAF1QipNPfdef7zonmDWaNRWRlQq_Go01Y9te5xwbZf8B!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNPfdef7zonmDWaNRWRlQq_Go01Y9te5xwbZf8B%3Dw900-h600-k-no-pi17.31109399113552-ya4.962023100270017-ro0-fo100!7i6912!8i3456!4m10!1m2!2m1!1z5rip5beeIOaZr-WMug!3m6!1s0x344faf7a1f30daa3:0x9bc9a38af2bb1d2d!8m2!3d28.338476!4d121.027454!15sCg3muKnlt54g5pmv5Yy6kgEKYXR0cmFjdGlvbqoBQRABKgoiBuaZr-WMuigQMh4QASIaq_u_9HlpDC2NIKEbC8CG_k17a1dHuZz81wgyERACIg3muKnlt54g5pmv5Yy64AEA!16s%2Fg%2F11xqsp78x?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%9B%81%E6%B9%96%E6%99%AF%E5%8C%BA/@28.3655014,121.0848999,3a,75y,134.37h,74.69t/data=!3m8!1e1!3m6!1sAF1QipPMfS6rDGGdNt6qv40zTeQH0bU6jfYDFND858n3!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipPMfS6rDGGdNt6qv40zTeQH0bU6jfYDFND858n3%3Dw900-h600-k-no-pi15.3136134651471-ya134.3653634709728-ro0-fo100!7i7070!8i3535!4m10!1m2!2m1!1z5rip5beeIOaZr-WMug!3m6!1s0x344faf7a1f30daa3:0x9bc9a38af2bb1d2d!8m2!3d28.338476!4d121.027454!15sCg3muKnlt54g5pmv5Yy6kgEKYXR0cmFjdGlvbqoBQRABKgoiBuaZr-WMuigQMh4QASIaq_u_9HlpDC2NIKEbC8CG_k17a1dHuZz81wgyERACIg3muKnlt54g5pmv5Yy64AEA!16s%2Fg%2F11xqsp78x?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@29.9980396,120.5746691,3a,75y,284.27h,90.81t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDGjpnRHA!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HaMIxVkYLko9zMmesbejRflkQQOGIX7G4uIH2rkvyxvVyWBdvh3z07F4M10hAWemfu4ARV8cb7bQx7hSOjKiuXK64u58PLh_jGuIIB9QNKzBIsXVS2Mcn_TQvsDEwrUAxGYoLzO%3Dw900-h600-k-no-pi-0.8095864163887398-ya105.26658090879482-ro0-fo100!7i11264!8i5632?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@30.773627,120.7455409,3a,75y,340h,90t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDBnbaBEA!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZ8R7BSGTXxHGZBLOq_gLjthNRatH84HyxyOHB6x0zRlf7E3HBXG2IvxRGdbieLcDS-ftq0iB-Pg7DXx5tNwWq5uMfZRqKQ0w7mJdiup_nMCHeXrK0YevuFeeSkU5N4h2XBLdM%3Dw900-h600-k-no-pi0-ya309-ro0-fo100!7i4608!8i2304?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@30.7629176,120.7469263,3a,75y,280h,100t/data=!3m8!1e1!3m6!1sAF1QipMBOuxVbE9iLwz819KjfOde3g1n7dl1HAPf8EcO!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMBOuxVbE9iLwz819KjfOde3g1n7dl1HAPf8EcO%3Dw900-h600-k-no-pi-10-ya292-ro0-fo100!7i4608!8i2304?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B9%8C%E9%95%87%E9%A3%8E%E6%99%AF%E5%8C%BA/@30.7518362,120.4740932,3a,75y,336.14h,83.4t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgID40NC7Iw!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6Has-1yL84HOY8PcliHuicO-A4H_7FvHW-J-H1a36l8occvMgIj2gg5hNzphG2WBI8wSxhYgJNJfA_hN2X6fbIdXl06Fb-3uwacIM5sJET4SvxgLWSuNTFk1woGis8Lg2Za5dIUb%3Dw900-h600-k-no-pi6.604287484473005-ya312.1442413797265-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5ZiJ5YW0IOaZr-WMug!3m6!1s0x35b349a298196351:0x6460792cc1b97aef!8m2!3d30.74801!4d120.491854!15sCg3lmInlhbQg5pmv5Yy6Wg8iDeWYieWFtCDmma_ljLqSAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXZUhSMmNHaFJSUkFCqgFCEAEqCiIG5pmv5Yy6KBAyHxABIhsa7ocQ8uAwUfyim5EUkhFjlRLO1-0HqIvF204yERACIg3lmInlhbQg5pmv5Yy64AEA-gEECAAQIg!16s%2Fg%2F11c2ns6pp1?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B9%8C%E9%95%87%E9%A3%8E%E6%99%AF%E5%8C%BA/@30.7486312,120.4851377,2a,75y,179.89h,90.11t/data=!3m7!1e1!3m5!1siRBiNiyb3DAAAARAtEZ68A!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D-0.11253999999999564%26panoid%3DiRBiNiyb3DAAAARAtEZ68A%26yaw%3D179.88747!7i13312!8i6656!4m10!1m2!2m1!1z5ZiJ5YW0IOaZr-WMug!3m6!1s0x35b349a298196351:0x6460792cc1b97aef!8m2!3d30.74801!4d120.491854!15sCg3lmInlhbQg5pmv5Yy6Wg8iDeWYieWFtCDmma_ljLqSAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXZUhSMmNHaFJSUkFCqgFCEAEqCiIG5pmv5Yy6KBAyHxABIhsa7ocQ8uAwUfyim5EUkhFjlRLO1-0HqIvF204yERACIg3lmInlhbQg5pmv5Yy64AEA-gEECAAQIg!16s%2Fg%2F11c2ns6pp1?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B9%8C%E9%95%87%E9%A3%8E%E6%99%AF%E5%8C%BA/@30.75069,120.48055,3a,75y,135.9h,99.41t/data=!3m8!1e1!3m6!1sAF1QipPGdZlTRmz3YtRefoVbvdGd3Mt0DfbklpeS5j3Q!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipPGdZlTRmz3YtRefoVbvdGd3Mt0DfbklpeS5j3Q%3Dw900-h600-k-no-pi-9.41006191922908-ya135.8976010703624-ro0-fo100!7i12664!8i6332!4m10!1m2!2m1!1z5ZiJ5YW0IOaZr-WMug!3m6!1s0x35b349a298196351:0x6460792cc1b97aef!8m2!3d30.74801!4d120.491854!15sCg3lmInlhbQg5pmv5Yy6Wg8iDeWYieWFtCDmma_ljLqSAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXZUhSMmNHaFJSUkFCqgFCEAEqCiIG5pmv5Yy6KBAyHxABIhsa7ocQ8uAwUfyim5EUkhFjlRLO1-0HqIvF204yERACIg3lmInlhbQg5pmv5Yy64AEA-gEECAAQIg!16s%2Fg%2F11c2ns6pp1?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B9%8C%E9%95%87%E9%A3%8E%E6%99%AF%E5%8C%BA/@30.750997,120.4808983,3a,75y,34.02h,85.61t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDqpb-1Lw!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HajNLPp2mdmyxrTGzvJvqMIIXZnFLTsS8MU8P6Vvx_Bz5kiw0MeVvXwJrF9hpduMmoqt8qy3bUd51SOgGYwiZRAbjSx2S6rXSHuXIgwSka0c9MGXknhOSiuCHf2o5oisqYkgIuc%3Dw900-h600-k-no-pi4.392856439168213-ya35.01826186221689-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5ZiJ5YW0IOaZr-WMug!3m6!1s0x35b349a298196351:0x6460792cc1b97aef!8m2!3d30.74801!4d120.491854!15sCg3lmInlhbQg5pmv5Yy6Wg8iDeWYieWFtCDmma_ljLqSAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXZUhSMmNHaFJSUkFCqgFCEAEqCiIG5pmv5Yy6KBAyHxABIhsa7ocQ8uAwUfyim5EUkhFjlRLO1-0HqIvF204yERACIg3lmInlhbQg5pmv5Yy64AEA-gEECAAQIg!16s%2Fg%2F11c2ns6pp1?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B9%8C%E9%95%87%E9%A3%8E%E6%99%AF%E5%8C%BA/@30.748069,120.489227,3a,75y,207.29h,84.69t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIC448_GBw!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HaYDt3ajgy1GYk4XcCIcsYBRMfWoXQPW5Nb713pKGb09uj0XlXgbyD-PfXjbo4l5D41nRkfoqmkI1bBrppbGoFXxS_NzU1WxLT7OT_M-HQbAXop2PDE-95WMGbjPLBUZ_FgUsVW%3Dw900-h600-k-no-pi5.310917342766103-ya268.29424678320606-ro0-fo100!7i7168!8i3584!4m10!1m2!2m1!1z5ZiJ5YW0IOaZr-WMug!3m6!1s0x35b349a298196351:0x6460792cc1b97aef!8m2!3d30.74801!4d120.491854!15sCg3lmInlhbQg5pmv5Yy6Wg8iDeWYieWFtCDmma_ljLqSAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXZUhSMmNHaFJSUkFCqgFCEAEqCiIG5pmv5Yy6KBAyHxABIhsa7ocQ8uAwUfyim5EUkhFjlRLO1-0HqIvF204yERACIg3lmInlhbQg5pmv5Yy64AEA-gEECAAQIg!16s%2Fg%2F11c2ns6pp1?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B9%8C%E9%95%87%E9%A3%8E%E6%99%AF%E5%8C%BA/@30.742277,120.4926149,3a,75y,268.84h,90t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICEmOf4Og!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZh7sNfTDTUpMsfjj1p7fLyzd8nqF9az2Q62s9QXyLO0mDetoBHKp-CLw5O1-TweRhccAC1UdSIynr0m9fGwbYFCx424zemETGq2ETjL3HlfXg9I6lfDJre57DnGh6BEF8apuCj%3Dw900-h600-k-no-pi0-ya235.836-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5ZiJ5YW0IOaZr-WMug!3m6!1s0x35b349a298196351:0x6460792cc1b97aef!8m2!3d30.74801!4d120.491854!15sCg3lmInlhbQg5pmv5Yy6Wg8iDeWYieWFtCDmma_ljLqSAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXZUhSMmNHaFJSUkFCqgFCEAEqCiIG5pmv5Yy6KBAyHxABIhsa7ocQ8uAwUfyim5EUkhFjlRLO1-0HqIvF204yERACIg3lmInlhbQg5pmv5Yy64AEA-gEECAAQIg!16s%2Fg%2F11c2ns6pp1?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B9%8C%E9%95%87%E9%A3%8E%E6%99%AF%E5%8C%BA/@30.7436657,120.4894867,3a,75y,30.51h,71.34t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICyrt_kaQ!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYowivHgyH45wgjPYppTG_jmKvDmCzJNYt2gyNRsG1tPBDw-5fmWlGqLYbI4Z1gpTZ1aVAlYXxg9OMUJ9Y2izFQGnM-fzAYytpzKPexIIhz2Va8dWcBKzqxiUPiz2tIeibPhw6F%3Dw900-h600-k-no-pi18.657391324468136-ya30.50714586879576-ro0-fo100!7i10000!8i5000!4m10!1m2!2m1!1z5ZiJ5YW0IOaZr-WMug!3m6!1s0x35b349a298196351:0x6460792cc1b97aef!8m2!3d30.74801!4d120.491854!15sCg3lmInlhbQg5pmv5Yy6Wg8iDeWYieWFtCDmma_ljLqSAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXZUhSMmNHaFJSUkFCqgFCEAEqCiIG5pmv5Yy6KBAyHxABIhsa7ocQ8uAwUfyim5EUkhFjlRLO1-0HqIvF204yERACIg3lmInlhbQg5pmv5Yy64AEA-gEECAAQIg!16s%2Fg%2F11c2ns6pp1?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B9%8C%E9%95%87%E9%A3%8E%E6%99%AF%E5%8C%BA/@30.742277,120.4926149,3a,75y,290.37h,80.11t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICEmOf4Og!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZh7sNfTDTUpMsfjj1p7fLyzd8nqF9az2Q62s9QXyLO0mDetoBHKp-CLw5O1-TweRhccAC1UdSIynr0m9fGwbYFCx424zemETGq2ETjL3HlfXg9I6lfDJre57DnGh6BEF8apuCj%3Dw900-h600-k-no-pi9.886682625778022-ya257.36518270933954-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5ZiJ5YW0IOaZr-WMug!3m6!1s0x35b349a298196351:0x6460792cc1b97aef!8m2!3d30.74801!4d120.491854!15sCg3lmInlhbQg5pmv5Yy6Wg8iDeWYieWFtCDmma_ljLqSAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXZUhSMmNHaFJSUkFCqgFCEAEqCiIG5pmv5Yy6KBAyHxABIhsa7ocQ8uAwUfyim5EUkhFjlRLO1-0HqIvF204yERACIg3lmInlhbQg5pmv5Yy64AEA-gEECAAQIg!16s%2Fg%2F11c2ns6pp1?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@25.2096086,121.5104161,3a,75y,263.1h,90t/data=!3m7!1e1!3m5!1sH3rw9d9YfU9tdfES8FN4yQ!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D0%26panoid%3DH3rw9d9YfU9tdfES8FN4yQ%26yaw%3D263.10052!7i16384!8i8192?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@25.2909828,121.5670551,3a,75y,302.73h,71.96t/data=!3m7!1e1!3m5!1suh6NIOueJ2qyUsmp2kKINA!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D18.04181760458708%26panoid%3Duh6NIOueJ2qyUsmp2kKINA%26yaw%3D302.72547078131186!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@25.2049078,121.6881214,3a,75y,130.62h,90t/data=!3m7!1e1!3m5!1suHz2B_8oguc6PspHwH_lVQ!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D0%26panoid%3DuHz2B_8oguc6PspHwH_lVQ%26yaw%3D130.61649!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@25.1083503,121.5232746,3a,75y,206.24h,89.32t/data=!3m7!1e1!3m5!1s3ns2sIaPbuQCOWLwxOF7ew!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D0.6796634222641416%26panoid%3D3ns2sIaPbuQCOWLwxOF7ew%26yaw%3D206.23636749164785!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@25.1004521,121.5495169,3a,75y,209.92h,88.52t/data=!3m8!1e1!3m6!1sAF1QipO-D5sI33Zg-VxaFdSJYc-Ehxr4fuoHWSyn1Stg!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipO-D5sI33Zg-VxaFdSJYc-Ehxr4fuoHWSyn1Stg%3Dw900-h600-k-no-pi1.4797060620430642-ya235.12141302373112-ro0-fo100!7i7714!8i3857?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@25.0868877,121.4715064,3a,75y,339.73h,90t/data=!3m7!1e1!3m5!1sdD77tAl997JylHeuNQCM5w!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D0%26panoid%3DdD77tAl997JylHeuNQCM5w%26yaw%3D339.7348!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@24.4848936,121.8909738,3a,75y,90t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDO8d-d7gE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HbLlB_TZamZClpcSPe1D9jXKtIX76SwAmAGWvvutVoTwpH7QW4BK_BieG4885zu-5EwTsWwf_AX_jhvRymMXMwSqwtCBIXhe8Ic0WX2sbHoRvUyBi3Rib3mtGbpoHnEFzot86eu%3Dw900-h600-k-no-pi0-ya0-ro0-fo100!7i8192!8i4096?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@24.8082932,120.9650175,3a,75y,291.71h,90t/data=!3m7!1e1!3m5!1sYfzT1PztK09GtGlda9ubkQ!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D0%26panoid%3DYfzT1PztK09GtGlda9ubkQ%26yaw%3D291.7095!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@24.4673618,120.9477553,3a,75y,259.5h,80.21t/data=!3m7!1e1!3m5!1s3cS-keFW0NllSTX05OHNFw!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D9.78816747500153%26panoid%3D3cS-keFW0NllSTX05OHNFw%26yaw%3D259.5016375191939!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@23.9730991,121.6041249,3a,75y,321.28h,90t/data=!3m7!1e1!3m5!1sfmyd2DLupmyqdvNEV8DKeA!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D0%26panoid%3Dfmyd2DLupmyqdvNEV8DKeA%26yaw%3D321.28198!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@23.9528009,120.440603,3a,75y,235.52h,93.02t/data=!3m7!1e1!3m5!1sU-pfTYcJZW-CB8yvef1Ygw!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D-3.0195375440843293%26panoid%3DU-pfTYcJZW-CB8yvef1Ygw%26yaw%3D235.5217632589153!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@23.484351,120.9595356,2a,75y,137.38h,79.95t/data=!3m7!1e1!3m5!1s1gzTU43mR4_Pl_RVFDtF2w!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D10.051182035344965%26panoid%3D1gzTU43mR4_Pl_RVFDtF2w%26yaw%3D137.38335216535518!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@22.0278523,121.5353848,3a,75y,108.72h,90.02t/data=!3m7!1e1!3m5!1sg-U-B6f1cC7MlL482uOgmw!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D-0.01837803125734183%26panoid%3Dg-U-B6f1cC7MlL482uOgmw%26yaw%3D108.71678851554066!7i16384!8i8192?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@22.6221409,120.3057702,3a,75y,67.17h,85.2t/data=!3m7!1e1!3m5!1snNoTCUb3kyFuzG4YMH0HfQ!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D4.80392996056986%26panoid%3DnNoTCUb3kyFuzG4YMH0HfQ%26yaw%3D67.17368913829785!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@23.5690768,119.5919357,3a,75y,134.13h,73.56t/data=!3m7!1e1!3m5!1sTR9_W_AjLkJW0coQ8J1ZEQ!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D16.437477658653222%26panoid%3DTR9_W_AjLkJW0coQ8J1ZEQ%26yaw%3D134.12980255301795!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@23.573508,119.4974568,3a,75y,230.83h,85.04t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDqq6uT0wE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZy9dXE2sLMrpokFIOClGsfKRlQxyQNHjgsQfAPrZeTueV95WAQBz2ZSmrx7AThQeoYpJWQLodAP_mrKwEAceDwx1HM-5_Jypk9foTVrLun275WfrNL_lPS7wBTMGEcFp9e8IcI%3Dw900-h600-k-no-pi4.9603441458806685-ya51.662186478710765-ro0-fo100!7i5376!8i2688?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@24.445963,118.3647947,3a,90y,24.5h,83.88t/data=!3m7!1e1!3m5!1shA7XzpZ5_H4Qazlhwa_WMQ!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D6.115022647487606%26panoid%3DhA7XzpZ5_H4Qazlhwa_WMQ%26yaw%3D24.4958643503183!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@24.473402,118.1103058,3a,75y,161.67h,100.68t/data=!3m8!1e1!3m6!1sAF1QipM9pYXd8dWn2dOEcRaAPHnuK_1CUjdjHWfDm88k!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipM9pYXd8dWn2dOEcRaAPHnuK_1CUjdjHWfDm88k%3Dw900-h600-k-no-pi-10.683113924185562-ya335.67195708748005-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@24.4494438,118.0647202,3a,75y,299.73h,80.27t/data=!3m8!1e1!3m6!1sAF1QipOryTZIz9BQNA0F1LpEd2ayqYHJloDMFgOQSeAS!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOryTZIz9BQNA0F1LpEd2ayqYHJloDMFgOQSeAS%3Dw900-h600-k-no-pi9.733812171181768-ya331.89948954493275-ro0-fo100!7i8192!8i4096?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@24.5871888,118.0673855,3a,75y,2.25h,97.88t/data=!3m8!1e1!3m6!1sAF1QipPAQAMPVTy3ckx0DgWLHEFObTF6CHcmUO2sM2P3!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipPAQAMPVTy3ckx0DgWLHEFObTF6CHcmUO2sM2P3%3Dw900-h600-k-no-pi-7.877814999999998-ya2.250804-ro0-fo100!7i4096!8i2048?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%A4%AA%E7%9C%9F%E6%B4%9E%E9%A3%8E%E6%99%AF%E5%8C%BA/@29.188002,118.824762,3a,75y,68.4h,86.79t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICc37LMDg!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HY9M2rCulCTZoPF55YNYbvqXlU3WcCo_7tnlfZ0FXxpGwfOyrCytpTKZJNHEBLtu1f2iZtV_z1sU_TxYKmvjEbdSNaZvPRosIKQaStx_Cl7sCkA3xoWncLd6X_6L8wLJFKZXzoY%3Dw900-h600-k-no-pi3.2062884380490715-ya68.3960215956725-ro0-fo100!7i13600!8i6800!4m10!1m2!2m1!1z6KGi5bee5biCIOaZr-WMug!3m6!1s0x3449d06f60360f53:0x42a3a4dbbae1f551!8m2!3d29.188002!4d118.824762!15sChDooaLlt57luIIg5pmv5Yy6kgESdG91cmlzdF9hdHRyYWN0aW9uqgFGEAEqCiIG5pmv5Yy6KBAyHxABIhtwU0tJQy8nEw73aG32gVwFr2fz5zsbRCtByBQyFRACIhHooaLlt54g5biCIOaZr-WMuuABAA!16s%2Fg%2F1tnqdprg?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E6%B1%9F%E9%83%8E%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%8C%BA/@28.5251018,118.5682813,3a,75y,12.72h,83.71t/data=!3m8!1e1!3m6!1sAF1QipNmOYpbXOrgg6-eqIjUxPRKveZBpgZzkJHyY0Pk!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNmOYpbXOrgg6-eqIjUxPRKveZBpgZzkJHyY0Pk%3Dw900-h600-k-no-pi6.292958690863628-ya222.71862381516897-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z6KGi5bee5biCIOaZr-WMug!3m6!1s0x3437fb9b6c91c933:0x91ff2be7f3734d81!8m2!3d28.525594!4d118.567214!15sChDooaLlt57luIIg5pmv5Yy6kgEKYXR0cmFjdGlvbqoBRhABKgoiBuaZr-WMuigQMh8QASIbcFNLSUMvJxMO92ht9oFcBa9n8-c7G0QrQcgUMhUQAiIR6KGi5beeIOW4giDmma_ljLrgAQA!16s%2Fg%2F1th0kl59?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B8%AD%E5%9B%BD%E8%88%9F%E5%B1%B1%E5%B8%82%E6%99%AE%E9%99%80%E5%8C%BA%E6%99%AE%E9%99%80%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%90%8D%E8%83%9C%E5%8C%BA/@30.002744,122.39886,3a,75y,273.27h,87.07t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICPtqCyYw!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYmwbvJc1SCO-fhHGyEofqASjMGIDznlWDeEBvPhwmisdQna9zCwh7RywaiYWj2VZX1zolahVs9R4tPHehTw_hmk8kpG3-D3cEGZGXVHl_QI3m0vclo8rZkMHsj30874rkhQj7N%3Dw900-h600-k-no-pi2.927250164045418-ya253.27499007058623-ro0-fo100!7i8704!8i4352!4m6!3m5!1s0x34532851e5285d85:0xeafdab9ccca73fbf!8m2!3d30.0009921!4d122.3872576!16s%2Fg%2F11c2qmypfr?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@28.4361173,119.918505,3a,75y,48.52h,104.13t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDq7bH5ogE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZ8lHdMAaVsEsBkmHms7dkSfv_WDijJ4cvHyFeWnIqUUvERmjhVZ_mumqfL_Qz1As0tcAUS2PgbfF9gQWp8aFFctb5RLSH5CoI0IYMj1fqW9z_Cp-XNveKo2Xk9m8LGBkxDKqtc5Q%3Dw900-h600-k-no-pi-14.128246427561109-ya133.51607525175731-ro0-fo100!7i8192!8i4096?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%9D%92%E7%94%B0%E5%8E%BF%E7%9F%B3%E9%97%A8%E6%B4%9E%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD/@28.2700208,120.1049039,3a,75y,170.28h,93.37t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDq8-OWBg!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYnqIsvFV_tcG70ixrR5m1HpM0-tyve3LCXes1qPaa2lhnuz0bYNZRCWQk-YoxzQGRvCDm_B4SkKBhi-qu0JNTPo3eZe2KsUqHgzSEO_eK3XH7vxGrLCNg1iMYam_mGipf0pQbZ%3Dw900-h600-k-no-pi-3.3742537308881424-ya286.282661102121-ro0-fo100!7i4028!8i1953!4m10!1m2!2m1!1z5Li95rC05biCIOaZr-WMug!3m6!1s0x3448b30be84e50b5:0x140bb6daebe1a576!8m2!3d28.275697!4d120.117916!15sChDkuL3msLTluIIg5pmv5Yy6kgESdG91cmlzdF9hdHRyYWN0aW9uqgFGEAEqCiIG5pmv5Yy6KBAyHxABIhur-7-9NzMluLkru21uKQOutAFijL3EMpSET1oyFRACIhHkuL3msLQg5biCIOaZr-WMuuABAA!16s%2Fg%2F1thvvzz4?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@22.4989661,113.3903838,3a,75y,218.21h,60.48t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDqnO3VeA!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYdfhA2uL1_zys01frZAIHizwbOyPckx3UQ-Pdul9Klz039Ckd8YHx6klitSukai9NQcncGJseqQtbML-9RRM_oYDTLAZleT3bHsmafRRtGLA9lg6xcZgp71k2psvAs103cVfwD%3Dw900-h600-k-no-pi29.521410267602477-ya218.20564166218384-ro0-fo100!7i12000!8i6000?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@39.9155257,116.397181,2a,75y,26.58h,100.15t/data=!3m7!1e1!3m5!1ss3MCgAhzuzEAAARDnIx1GQ!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D-10.153532875543831%26panoid%3Ds3MCgAhzuzEAAARDnIx1GQ%26yaw%3D26.576539732833126!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@39.9136165,116.3972367,2a,75y,311.85h,108.78t/data=!3m7!1e1!3m5!1s4i0_Wu8DTcsAAAREq-bR2Q!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D-18.781733324808243%26panoid%3D4i0_Wu8DTcsAAAREq-bR2Q%26yaw%3D311.84717653701983!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E6%95%85%E5%AE%AB%E5%8D%9A%E7%89%A9%E9%99%A2/@39.9153257,116.3993388,3a,75y,0.21h,102.14t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgID47uDLYw!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYMLk2ApaGKwEuuuFq67S3zduJeJuGPEPI2gHZzZmNs_2yAgQcVSg2Ps7MH5fJDs2QMQ92ubIeOj7CTwnbHGWVAkIPU2u4P1lcqZyK45cJvnQPoov8MgOK04n48tYOEE2D2hilL%3Dw900-h600-k-no-pi-12.137384867858174-ya336.210405890116-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5YyX5LqsIOaVheWuqw!3m6!1s0x35f052dd9bcd81ab:0xde43eaed9b106064!8m2!3d39.9163447!4d116.3971546!15sCg3ljJfkuqwg5pWF5a6rWg8iDeWMl-S6rCDmlYXlrquSARdoaXN0b3JpY2FsX3BsYWNlX211c2V1baoBQhABKgoiBuaVheWuqygQMh8QASIbM-12lpkZGzxjjpyLwAmkoh3v8OWrn52rmx2DMhEQAiIN5YyX5LqsIOaVheWuq-ABAA!16s%2Fm%2F02y_3j6?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@31.2342206,121.5074645,3a,75y,232.53h,113.94t/data=!3m8!1e1!3m6!1sAF1QipMbsInd7v7aeq_8wdHahXbdrljZE-D-kKF0ISXm!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMbsInd7v7aeq_8wdHahXbdrljZE-D-kKF0ISXm%3Dw900-h600-k-no-pi-23.941022119753043-ya252.52769978139446-ro0-fo100!7i7680!8i3840?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%B9%BF%E5%B7%9E%E5%A1%94/@23.1102581,113.3197861,3a,75y,311.76h,108t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgID4v_Gk-wE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HaR-DUAto9_thL3cKuCOA-eNSXcIQ6b6L5WeNAwE0Nxdu1Zz-TbXemHZhowedxsC4mzDQLu6Wutl5vX-IYJZ6VsgN0W67Dxg15W-_E_9prIHTLtgjuyDuelLgZpUWl9I-R8wuECZQ%3Dw900-h600-k-no-pi-17.997569477983248-ya321.7647043477537-ro0-fo100!7i6912!8i3456!4m6!3m5!1s0x3402ff9f2907b4c9:0xad05649c7ac62667!8m2!3d23.107481!4d113.3401572!16zL20vMGJtMDV0?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@23.1145105,113.3225102,3a,75y,154.99h,104.97t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDqpaiRLQ!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HaPDwlH_WsSwtoT6YLXCMAa43Y-UdIVzNccNIViJ9IFjsqvZOcPBB_MYPkVBS4Gj2Ddd04VbuqtcgNOH7vbXZTW1H3ywunHGvNbyDJ-IwlSAqBUUSH66_5OZYdwfMdoZjKm5Pc%3Dw900-h600-k-no-pi-14.970062762354743-ya138.99005197355157-ro0-fo100!7i10000!8i5000?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@34.2598429,108.9362897,3a,75y,180h,90t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDOlpj-Ng!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYG7brHsJXV4nBMqIZTTuHsRrWmyfBoWk-Ae-PJFcxgqw3ESKHNxbj2aSdLqXPxZsupqA9aufndtIrwtdJPNjThRdBfJFdtMdxZpslckeptrJtx6u7DKAshNOStYaNZlJvDTK1s%3Dw900-h600-k-no-pi0-ya171-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@34.259329,108.972131,3a,75y,0.1h,97.37t/data=!3m8!1e1!3m6!1sAF1QipNDzSpMEDSTw9eGNv5UfkdQ7WAfwUs5hHGoyByb!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNDzSpMEDSTw9eGNv5UfkdQ7WAfwUs5hHGoyByb%3Dw900-h600-k-no-pi-7.374488876614308-ya274.1048008394929-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@34.2518882,108.9296385,3a,75y,169.95h,88.69t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDOlpjXIw!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYNeNPy6OMEDAUAgpZvYieWVGlR2uYwHP1S0bOod6duNI1IEhfqRFT_rfedri_vL4dO2oCFkWWVzv3Cs_gxDIyUkh5r1lu-DLnPI056pE4K3DssAL8SAlERQMg6vFlAi8qcsLwY%3Dw900-h600-k-no-pi1.3066477161005565-ya348.95095458406905-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@34.2401657,108.9360199,3a,75y,82.22h,65.49t/data=!3m8!1e1!3m6!1sAF1QipMHvvnHhVOYFlx8TYToXws1UUM8YWRruGUVQtgl!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMHvvnHhVOYFlx8TYToXws1UUM8YWRruGUVQtgl%3Dw900-h600-k-no-pi24.50872161266895-ya172.21639369219736-ro0-fo100!7i10000!8i5000?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E8%A5%BF%E5%AE%89%E9%92%9F%E6%A5%BC/@34.2557715,108.9476112,3a,75y,144.49h,85.7t/data=!3m8!1e1!3m6!1sAF1QipOVLqCEeEaRix1UJzwKsAdI5KKX17EnRrLyYZoW!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOVLqCEeEaRix1UJzwKsAdI5KKX17EnRrLyYZoW%3Dw900-h600-k-no-pi4.296758409165719-ya267.4945008763026-ro0-fo100!7i10240!8i5120!4m6!3m5!1s0x36637a6108f00001:0x527adec5a3f239e1!8m2!3d34.2594667!4d108.9470197!16s%2Fm%2F04lgph6?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E8%A5%BF%E5%AE%89%E9%92%9F%E6%A5%BC/@34.2603472,108.9439685,3a,75y,338.59h,107.2t/data=!3m8!1e1!3m6!1sAF1QipNhcNOTKXVtH7OJQsOa5YebfOKfZVpeXze4kxrk!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNhcNOTKXVtH7OJQsOa5YebfOKfZVpeXze4kxrk%3Dw900-h600-k-no-pi-17.202540230947534-ya338.5926740098921-ro0-fo100!7i5376!8i2688!4m6!3m5!1s0x36637a6108f00001:0x527adec5a3f239e1!8m2!3d34.2594667!4d108.9470197!16s%2Fm%2F04lgph6?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%9B%B7%E5%B3%B0%E5%A1%94/@30.230857,120.1497171,3a,75y,344.07h,101.49t/data=!3m8!1e1!3m6!1sAF1QipOKJ8nM_eqYllQ9iKdFeql20IdxiP6AiEzm9lYR!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOKJ8nM_eqYllQ9iKdFeql20IdxiP6AiEzm9lYR%3Dw900-h600-k-no-pi-11.4859258584124-ya344.0716928440438-ro0-fo100!7i5376!8i2688!4m6!3m5!1s0x344b7d52a68c9871:0x33c74aa16f2ad96d!8m2!3d30.2315677!4d120.149695!16s%2Fm%2F02wxfpd?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%BB%84%E9%B9%A4%E6%A5%BC/@30.5444803,114.3023327,3a,75y,193.86h,98.89t/data=!3m8!1e1!3m6!1sAF1QipOxD_k0z6kFgOMANKUlyXrGzYaWFxB19FxtWeCb!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOxD_k0z6kFgOMANKUlyXrGzYaWFxB19FxtWeCb%3Dw900-h600-k-no-pi-8.888052774364056-ya145.86030269863528-ro0-fo100!7i8704!8i4352!4m6!3m5!1s0x342eafc7609fc5f5:0x589c52e877def5a!8m2!3d30.544522!4d114.3023505!16zL20vMDg1YnF0?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%BB%84%E9%B9%A4%E6%A5%BC/@30.5442355,114.3034463,3a,75y,320.64h,96.06t/data=!3m8!1e1!3m6!1sAF1QipN6QhveVs-in68y70SNA9tktTgx9-t7JRUfNOco!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipN6QhveVs-in68y70SNA9tktTgx9-t7JRUfNOco%3Dw900-h600-k-no-pi-6.056954202337337-ya320.63994469535464-ro0-fo100!7i6080!8i3040!4m6!3m5!1s0x342eafc7609fc5f5:0x589c52e877def5a!8m2!3d30.544522!4d114.3023505!16zL20vMDg1YnF0?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E6%AD%A6%E6%B1%89%E9%95%BF%E6%B1%9F%E5%A4%A7%E6%A1%A5/@30.549622,114.288416,3a,75y,47.4h,91.28t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDZlYCsXQ!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HY_qhLUhCe62D7L-z-KCnvC8hbwtXQI6ZsSESLyobNDXM4gjLz4KuA6iTE83fIk1Xq91OXYbnVKHBjwsMHgKS2fzSgFTPIi3h2hJxgNF0omtdhVwOqm_atzcuVZDh4M9J37oBZU%3Dw900-h600-k-no-pi-1.2810471362320186-ya47.40309642010139-ro0-fo100!7i16000!8i8000!4m6!3m5!1s0x342eae4b9750e843:0x2723b96367ca5033!8m2!3d30.549622!4d114.288416!16s%2Fm%2F052584r?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%AE%BD%E7%AA%84%E5%B7%B7%E5%AD%90/@30.655556,104.0625,3a,75y,177.71h,109.41t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDEx5rcnQE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HaxqpFSg4nt4mS7Guw67NjhdyYVkQeHH18XkrhEPWmvyazZV3mhLWsTx2PX14759TH2FVeqkaPaAZBWK-h9vM0ZWv_BOiOp6oy5BVu94WfZKKPpICKzzUWS-dpKdxqn9Ef7JNtNIQ%3Dw900-h600-k-no-pi-19.412319470338574-ya183.71304890680742-ro0-fo100!7i8704!8i4352!4m6!3m5!1s0x36efc4d813561247:0x834b32cab17f5265!8m2!3d30.6636111!4d104.0525!16s%2Fg%2F113jkhwwq?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%AE%BD%E7%AA%84%E5%B7%B7%E5%AD%90/@30.6574409,104.0660211,3a,75y,326.61h,92.62t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDqvf7IuwE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYV5K_lEVLMVq-1bLeCmuho9LiqF7yMCuoFTrAFJvUxv64NAvHqytW9il4TNMYXUMJ0DzlOjT6LqVG8QFsaB-CJsaKT4pFCGMChSSaXorRX7eMZ0SEJn9GuwyIoVnssloF1ud7E%3Dw900-h600-k-no-pi-2.6163895379752518-ya160.60959603879087-ro0-fo100!7i8704!8i4352!4m6!3m5!1s0x36efc4d813561247:0x834b32cab17f5265!8m2!3d30.6636111!4d104.0525!16s%2Fg%2F113jkhwwq?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E6%88%90%E9%83%BD%E5%A4%A7%E7%86%8A%E7%8C%AB%E7%B9%81%E8%82%B2%E7%A0%94%E7%A9%B6%E5%9F%BA%E5%9C%B0%E5%A4%A7%E7%86%8A%E7%8C%AB%E8%82%B2%E5%B9%BC%E5%8C%BA/@30.7376979,104.142339,3a,75y,107.58h,91.49t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICExPip_QE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HZxOa_KQOEyxSpTyh__LY1oIfXz0liz7usCWpTZ-L6rA3R_i8wNP8GA--v-UWE0V-ShcquCVn7uRN1K_gcPgQ-sRhkQAmX-akj_y8fxehngOAYKDL07HhIYt79OiU_m0MujSH8vMg%3Dw900-h600-k-no-pi-1.487827178250555-ya349.5808627077886-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5pil54aZ6LevSUZTIOeGiueMq-eIrOalvA!3m6!1s0x36efd0dc056f472d:0xcda8cbb356a31383!8m2!3d30.739206!4d104.140119!15sChnmmKXnhpnot69JRlMg54aK54yr54is5qW8WiAiHuaYpSDnhpkg6LevIGlmcyDnhornjKsg54isIOalvJIBDW5hdGlvbmFsX3BhcmuqAVsQASoSIg7nhornjKsg54isIOalvCgQMh8QASIbclUqi1E2g0OARmgSaHIyD6Rhy410JLzjb-fUMiIQAiIe5pilIOeGmSDot68gaWZzIOeGiueMqyDniKwg5qW84AEA!16s%2Fg%2F11cm1lzb4g?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@36.0790103,120.3468644,3a,75y,359.89h,90.11t/data=!3m8!1e1!3m6!1sAF1QipNtr6u9V0z_L02JL6mjpaDtpsPBUAhzb-U9z5ww!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNtr6u9V0z_L02JL6mjpaDtpsPBUAhzb-U9z5ww%3Dw900-h600-k-no-pi-0.11253999999999564-ya359.88745-ro0-fo100!7i5952!8i2976?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E8%83%B6%E6%BE%B3%E6%80%BB%E7%9D%A3%E5%BA%9C/@36.058193,120.336427,3a,75y,211.27h,75.55t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIC-hpb82gE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HbbaGG44YOVAFEBe0dkyh0_CkLZ9CgMN54cMSyWyWINoIzqp2odVMatLqt7Xt_-CEC2Kk7KSC_Or0qQJHuXRnM1160i9YrPCHTEG8PEKLxTdF2Liv6G1S1DK8-Yp2xbrtuOurFl%3Dw900-h600-k-no-pi14.453860333524176-ya211.26539140467375-ro0-fo100!7i10000!8i5000!4m10!1m2!2m1!1z5qCI5qGl77ya6ICB6Z2S5bKb6LGh5b6B!3m6!1s0x35960ff260b55915:0xf2051de1f1f3edb2!8m2!3d36.064715!4d120.323708!15sChjmoIjmoaXvvJrogIHpnZLlspvosaHlvoGSARJ0b3VyaXN0X2F0dHJhY3Rpb26qAV8QASocIhjmoIjmoaUg6ICBIOmdkuWymyDosaHlvoEoEDIfEAEiG2pRntWY3Z2QtOzDOv2RpygjqBQ9YTgvlFLUYDIcEAIiGOagiOahpSDogIEg6Z2S5bKbIOixoeW-geABAA!16zL20vMDQxYmRk?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E6%A0%88%E6%A1%A5%E5%85%AC%E5%9B%AD/@36.0619083,120.3193088,3a,75y,266.58h,86.14t/data=!3m8!1e1!3m6!1sAF1QipO_z02gUAxGSlfN-1_l7iB3jQgr0tRqCSex8_ts!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipO_z02gUAxGSlfN-1_l7iB3jQgr0tRqCSex8_ts%3Dw900-h600-k-no-pi3.8631214150268818-ya39.57977785272351-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5qCI5qGl!3m6!1s0x35960f8b5e3792b1:0xb7fce01caef4a413!8m2!3d36.062026!4d120.319111!15sCgbmoIjmoaVaCCIG5qCI5qGlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU01TTNOaVNsWkJFQUWqAS8QATIfEAEiGySnT0rPPIdyl2eJo0bJ9C5UZTTXBhkwJLVruTIKEAIiBuagiOahpeABAPoBBAgAEBM!16s%2Fg%2F1xb2bjs2?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%BC%93%E6%B5%AA%E5%B1%BF/@24.443106,118.073044,3a,75y,339.98h,105.06t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIC4prrUNA!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HbqsG1VMQuRDsUFt3K7koCtHuoGOPi4vPbwj-xrkxoaDk_RQst8PsoYLR-xFZ0BmnCER3pU18RmCw3lpq3Mww1xazrDhQDEIbB4LM9SU-mjPUuum1vOoSJMqSfTgwUn5yTuq52O%3Dw900-h600-k-no-pi-15.064259219616034-ya116.98405921537642-ro0-fo100!7i8704!8i4352!4m6!3m5!1s0x341483781aba3401:0x8301ed4b1fcb3b18!8m2!3d24.446318!4d118.066232!16zL20vMDFucTYx?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%BC%93%E6%B5%AA%E5%B1%BF/@24.4455217,118.067306,3a,75y,282.73h,95.47t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICB34bWdw!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYQP1bnR66oB_r1OpXZA7iSwXjoBsrSeIW3MahAy_1POvZvc8KMjBnaX6-RRnihRy6uGKHceYZgs9SaGKKIu00oepaRr2fy3yhbb5Oj_P8wEOSIg-WxRJqSieqTGrx9f-XuhhPS%3Dw900-h600-k-no-pi-5.469933312541812-ya282.73121665370564-ro0-fo100!7i6528!8i3264!4m6!3m5!1s0x341483781aba3401:0x8301ed4b1fcb3b18!8m2!3d24.446318!4d118.066232!16zL20vMDFucTYx?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%BC%93%E6%B5%AA%E5%B1%BF/@24.4426375,118.0627619,3a,75y,90.42h,109.4t/data=!3m8!1e1!3m6!1sAF1QipOYvSoC3PxzqkZVWUSRwwX0xyhU5N8gKmpoyDba!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOYvSoC3PxzqkZVWUSRwwX0xyhU5N8gKmpoyDba%3Dw900-h600-k-no-pi-19.403377624523557-ya32.42045580148448-ro0-fo100!7i10240!8i5120!4m6!3m5!1s0x341483781aba3401:0x8301ed4b1fcb3b18!8m2!3d24.446318!4d118.066232!16zL20vMDFucTYx?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%B8%83%E8%BE%BE%E6%8B%89%E5%AE%AB/@29.6554942,91.1185792,3a,75y,38.13h,95.67t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDE4Ngz!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HbxUweH88emPkXnipS_Sy7aHmFe7fo0lIcgrxQjr49QsHaCakTawF_mAYq-lePn92VW2AYQT1RbdhHksSOVqDUrCSAkrIxNPA71zd4Ry2-h5nw-0xFc5h_CeW3z1Iq0mvc7%3Dw900-h600-k-no-pi-5.671412897806164-ya348.132442139142-ro0-fo100!7i10000!8i5000!4m6!3m5!1s0x3761317244846eab:0x4ae80d857ec10c19!8m2!3d29.6554942!4d91.1185792!16zL20vMDJkYnd3?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%A4%A7%E6%98%AD%E5%AF%BA/@29.6501152,91.1327857,3a,75y,253.32h,82.97t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICElOe_QA!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6Halda84KWfHdHM9GkJsPHbgNExkaAjzG7WRblT3Qy-bUHImmttQPViqM7adR_IESW04MMrhhvFQsS4o2npTMWdWRNXkQlAcie3lMAw9VkxaFGTo6xNVZSF_06Jm7jigABTP20iQ%3Dw900-h600-k-no-pi7.0269501713848825-ya253.3235916199079-ro0-fo100!7i5376!8i2688!4m10!1m2!2m1!1z5aSn5pit5a-6!3m6!1s0x3761317e7214231b:0x26395c2ffd43dc25!8m2!3d29.650237!4d91.133861!15sCgnlpKfmmK3lr7qSAQ9idWRkaGlzdF90ZW1wbGWqATIQATIeEAEiGs2PXXbij7LkrPoEQqPr5qI13hTHumMlWo2dMg4QAiIK5aSn5pitIOWvuuABAA!16zL20vMDRoNGZr?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%A4%A7%E6%98%AD%E5%AF%BA/@29.6508442,91.134501,3a,75y,171.95h,94.23t/data=!3m8!1e1!3m6!1sAF1QipMAY0Cv3SNyHrWsSfnhA1EWEhJeE81HsLr6cmj-!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMAY0Cv3SNyHrWsSfnhA1EWEhJeE81HsLr6cmj-%3Dw900-h600-k-no-pi-4.225860348529238-ya171.94509946620894-ro0-fo100!7i5376!8i2688!4m10!1m2!2m1!1z5aSn5pit5a-6!3m6!1s0x3761317e7214231b:0x26395c2ffd43dc25!8m2!3d29.650237!4d91.133861!15sCgnlpKfmmK3lr7qSAQ9idWRkaGlzdF90ZW1wbGWqATIQATIeEAEiGs2PXXbij7LkrPoEQqPr5qI13hTHumMlWo2dMg4QAiIK5aSn5pitIOWvuuABAA!16zL20vMDRoNGZr?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B8%AD%E5%9B%BD%E8%A5%BF%E8%97%8F%E8%87%AA%E6%B2%BB%E5%8C%BA%E6%8B%89%E8%90%A8%E5%B8%82%E5%9F%8E%E5%85%B3%E5%8C%BA%E5%85%AB%E5%BB%93%E8%A1%97+%E9%82%AE%E6%94%BF%E7%BC%96%E7%A0%81:+850004/@29.6501723,91.1311244,3a,75y,45.47h,90t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgID4vLSMjgE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYsdAlCcdTMPpdG5B58hIRViRwBIe02xkEXJw3999PnDcliksfls4xdA9-z-HymwZgEXq9b4Lt6WjAIQZfBDHbn66wPc8dwQdrFANOOVRemhFQ6sDQxvXivhvytIapvARXwSI3TRw%3Dw900-h600-k-no-pi0-ya322.46983284011185-ro0-fo100!7i9728!8i4864!4m6!3m5!1s0x37613179454db641:0x1710140ecf8d7ad7!8m2!3d29.65018!4d91.12973!16s%2Fg%2F11n8rx36n1?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B8%AD%E5%9B%BD%E6%96%B0%E7%96%86%E7%BB%B4%E5%90%BE%E5%B0%94%E8%87%AA%E6%B2%BB%E5%8C%BA%E4%B9%8C%E9%B2%81%E6%9C%A8%E9%BD%90%E5%B8%82%E5%A4%A9%E5%B1%B1%E5%8C%BA%E6%96%B0%E7%96%86%E5%9B%BD%E9%99%85%E5%A4%A7%E5%B7%B4%E6%89%8E%E6%99%AF%E5%8C%BA+%E9%82%AE%E6%94%BF%E7%BC%96%E7%A0%81:+830094/@43.7792813,87.6181605,3a,75y,54.58h,95t/data=!3m8!1e1!3m6!1sAF1QipOT1id071hbzHji7veGpl4GaYNj_Tw6Se7DWPTF!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOT1id071hbzHji7veGpl4GaYNj_Tw6Se7DWPTF%3Dw900-h600-k-no-pi-5.001167102398014-ya145.57668849973996-ro0-fo100!7i8554!8i3741!4m6!3m5!1s0x380600b34f1f93e9:0x23986e4f188a035a!8m2!3d43.7796973!4d87.6181076!16s%2Fm%2F09v73_s?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B8%AD%E5%9B%BD%E6%96%B0%E7%96%86%E7%BB%B4%E5%90%BE%E5%B0%94%E8%87%AA%E6%B2%BB%E5%8C%BA%E4%B9%8C%E9%B2%81%E6%9C%A8%E9%BD%90%E5%B8%82%E5%A4%A9%E5%B1%B1%E5%8C%BA%E6%96%B0%E7%96%86%E5%9B%BD%E9%99%85%E5%A4%A7%E5%B7%B4%E6%89%8E%E6%99%AF%E5%8C%BA+%E9%82%AE%E6%94%BF%E7%BC%96%E7%A0%81:+830094/@43.7795563,87.6164551,3a,75y,8.15h,103.26t/data=!3m8!1e1!3m6!1sAF1QipOcMe5qtQMQq3m7O2BObzmvI7DNME--NOfaKjc!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOcMe5qtQMQq3m7O2BObzmvI7DNME--NOfaKjc%3Dw900-h600-k-no-pi-13.261603977742922-ya331.1492603935171-ro0-fo100!7i8704!8i4352!4m6!3m5!1s0x380600b34f1f93e9:0x23986e4f188a035a!8m2!3d43.7796973!4d87.6181076!16s%2Fm%2F09v73_s?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B8%AD%E5%9B%BD%E6%96%B0%E7%96%86%E7%BB%B4%E5%90%BE%E5%B0%94%E8%87%AA%E6%B2%BB%E5%8C%BA%E4%B9%8C%E9%B2%81%E6%9C%A8%E9%BD%90%E5%B8%82%E5%A4%A9%E5%B1%B1%E5%8C%BA%E6%96%B0%E7%96%86%E5%9B%BD%E9%99%85%E5%A4%A7%E5%B7%B4%E6%89%8E%E6%99%AF%E5%8C%BA+%E9%82%AE%E6%94%BF%E7%BC%96%E7%A0%81:+830094/@43.778349,87.6158521,3a,75y,7.67h,90.63t/data=!3m8!1e1!3m6!1sAF1QipP7kkg6DiFJ9pE4dv4ejt2U8dFMMZPeAStUA4ag!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipP7kkg6DiFJ9pE4dv4ejt2U8dFMMZPeAStUA4ag%3Dw900-h600-k-no-pi-0.6322944980735627-ya8.667771463075951-ro0-fo100!7i11264!8i5632!4m6!3m5!1s0x380600b34f1f93e9:0x23986e4f188a035a!8m2!3d43.7796973!4d87.6181076!16s%2Fm%2F09v73_s?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%A4%A9%E6%B1%A0/@43.881317,88.129005,3a,75y,181.36h,93.21t/data=!3m8!1e1!3m6!1sAF1QipMLD5nxNEIJCrIUE9yHrBRfxooWwr-A--6eKXtC!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMLD5nxNEIJCrIUE9yHrBRfxooWwr-A--6eKXtC%3Dw900-h600-k-no-pi-3.207492235362892-ya181.35537375694048-ro0-fo100!7i6080!8i3040!4m6!3m5!1s0x38067da99ff51075:0x421d455885ceb510!8m2!3d43.887985!4d88.1364591!16s%2Fm%2F025v7ht?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E5%A4%A9%E6%B1%A0/@43.899716,88.1216,3a,75y,90t/data=!3m8!1e1!3m6!1sAF1QipNX37AHcAmbkBgr0Qt3mbdg1Df4EOhtIvZR-dJe!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipNX37AHcAmbkBgr0Qt3mbdg1Df4EOhtIvZR-dJe%3Dw900-h600-k-no-pi0-ya0-ro0-fo100!7i6080!8i3040!4m6!3m5!1s0x38067da99ff51075:0x421d455885ceb510!8m2!3d43.887985!4d88.1364591!16s%2Fm%2F025v7ht?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E9%BB%94%E7%81%B5%E5%B1%B1/@26.6011162,106.6927719,3a,75y,300h,90t/data=!3m8!1e1!3m6!1sAF1QipMHqing78aHfHwlk7-WqjPA_PX-XR6X5T2Vw-5V!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMHqing78aHfHwlk7-WqjPA_PX-XR6X5T2Vw-5V%3Dw900-h600-k-no-pi0-ya275-ro0-fo100!7i8704!8i4352!4m9!3m8!1s0x36bf67b35686743f:0xce1bba1a73b030c4!8m2!3d26.595824!4d106.693774!10e5!14m1!1BCgIgARICCAI!16s%2Fm%2F0h1hr18?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B8%AD%E5%9B%BD%E6%B5%99%E6%B1%9F%E7%9C%81%E6%9D%AD%E5%B7%9E%E5%B8%82%E8%A5%BF%E6%B9%96%E5%8C%BA/@30.259312,120.130211,3a,75y,173.74h,92.73t/data=!3m8!1e1!3m6!1sAF1QipOsWJr3jyqF7hhJrCkYjdhqDSv6T5WjQzVCCerT!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOsWJr3jyqF7hhJrCkYjdhqDSv6T5WjQzVCCerT%3Dw900-h600-k-no-pi-2.7304199393838786-ya173.73977810940946-ro0-fo100!7i8000!8i4000!4m7!3m6!1s0x344b641bf7eabb35:0x6eaa153514876e2f!8m2!3d30.2596099!4d120.13026!10e5!16s%2Fm%2F0410vll?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/209.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/210.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/211.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/212.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/213.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/214.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/215.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/216.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/217.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/218.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/219.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/220.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/221.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/222.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/223.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/224.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/225.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/226.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/227.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/228.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/229.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/230.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/231.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/232.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/233.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/234.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/235.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/236.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/237.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/238.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/239.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/240.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/241.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/242.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/243.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/244.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/245.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/246.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/247.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/248.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/249.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/250.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/251.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/252.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/253.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/254.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/255.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/256.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/257.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/258.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/259.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/260.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/261.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/262.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/263.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/264.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/265.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/266.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/267.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/268.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/269.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/270.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/271.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/272.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/273.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/274.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/275.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/276.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/277.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/278.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/279.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/280.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/281.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/282.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/283.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/284.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/285.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/286.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/287.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/288.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/289.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/290.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/291.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/292.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/293.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/294.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/295.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/296.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/297.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/298.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/299.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/300.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/301.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/302.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/303.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/304.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/305.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/306.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/307.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/308.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/309.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/310.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/311.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/312.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/313.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/314.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/315.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/316.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/317.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/318.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/319.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/320.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/321.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/322.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/323.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/324.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/325.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/326.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/327.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/328.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/329.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/330.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/331.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/332.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/333.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/334.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/335.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/336.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/337.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/338.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/339.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/340.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/341.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/342.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/343.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/344.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/345.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/346.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/347.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/348.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/349.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/youhess/Geoguesser-China-data/main/350.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@30.6633065,104.0440364,3a,90y,59.7h,122.86t/data=!3m8!1e1!3m6!1sAF1QipOqQSFaSFF_IOqt7c0nKubH-sglyeul9MDYTpOq!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOqQSFaSFF_IOqt7c0nKubH-sglyeul9MDYTpOq%3Dw900-h600-k-no-pi-32.855013032505-ya211.70491309820773-ro0-fo100!7i10240!8i5120?entry=ttu&amp;g_ep=EgoyMDI1MDQyOS4wIKXMDSoASAFQAw%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E7%8B%AE%E5%AD%90%E6%9E%97/@31.3232582,120.6245375,3a,75y,320h,100t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIC47LjSoQE!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HbIBmQmJmYn8h0YsWXjjk47XHzq8jIDhGJY-KJr92XQdiSfVY_RlOVDpiEEQbYq4VxbFms8qIis-33iZ0XiW9I9hFBWiAeUHQRlbVzIaIGBVfdCwgKca011pC60Ni3qHps0Ic7LwQ%3Dw900-h600-k-no-pi-10-ya16-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5Lit5Zu95pmv54K5IOiLj-W3ng!3m6!1s0x35b3a6d042d2238f:0xf46a72c225ceae2!8m2!3d31.320802!4d120.629648!15sChPkuK3lm73mma_ngrkg6IuP5beeWhYiFOS4reWbvSDmma_ngrkg6IuP5beekgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5UVVJKYzNSdE1sOVJSUkFCqgFJEAEqCiIG5pmv54K5KBAyHxABIhsVct2JwoPEfRZvE6ZY_X32KVBtE6rCz7g7N5kyGBACIhTkuK3lm70g5pmv54K5IOiLj-W3nuABAPoBBAgAECE!16s%2Fm%2F05zq6kk?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@25.1220577,121.8614543,3a,75y,51.74h,90t/data=!3m7!1e1!3m5!1sZ__Qq6cS_3OKbiTQoQNJBQ!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D0%26panoid%3DZ__Qq6cS_3OKbiTQoQNJBQ%26yaw%3D51.74191!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/@23.3215021,121.4649345,3a,75y,309.17h,96.77t/data=!3m7!1e1!3m5!1sRvvUdio2ctWPzfTHjIeU3g!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D-6.769711222147819%26panoid%3DRvvUdio2ctWPzfTHjIeU3g%26yaw%3D309.1683285543187!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E7%94%B2%E7%A7%80%E6%A5%BC/@26.5709873,106.7193149,3a,75y,19h,93.5t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgICiurmFPA!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYHRFTwABFeNCou6wnvgXVSgkWv6nrqRs_0GHSJHyuduSAs9tvI1NbtHDXrwsi0ciiXjQi-djCDL7CPAGxumsZxI8SMNEVRM8_sb2UBrjTMIUPEP995DWRxJMGEX3N_0JQNDRA%3Dw900-h600-k-no-pi-3.496077580337456-ya49.00224364645794-ro0-fo100!7i10240!8i5120!4m6!3m5!1s0x36bf67de36d137df:0x1dd78897c443424f!8m2!3d26.571401!4d106.719752!16s%2Fg%2F11x7vjt6h?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.co.uk/maps/place/%E4%B8%BD%E6%B1%9F%E5%8F%A4%E5%9F%8E/@26.8755295,100.2328468,3a,75y,308.77h,103.34t/data=!3m8!1e1!3m6!1sAF1QipOhcr2KZv2PnWp8p59Gr9lDv9rNAUJMv48N0a8!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOhcr2KZv2PnWp8p59Gr9lDv9rNAUJMv48N0a8%3Dw900-h600-k-no-pi-13.33787906618096-ya314.77172557437126-ro0-fo100!7i8704!8i4352!4m10!1m2!2m1!1z5Lit5Zu95pmv54K5!3m6!1s0x3720b584064c0c01:0x2ca3f44972f75fb5!8m2!3d26.8718026!4d100.2358502!15sCgzkuK3lm73mma_ngrlaDyIN5Lit5Zu9IOaZr-eCuZIBDWhpc3RvcmljX3NpdGWqAUEQASoKIgbmma_ngrkoEDIeEAEiGnpaxeeUPjEDHVCNcbrVUUVjJFEPiahJtcfnMhEQAiIN5Lit5Zu9IOaZr-eCueABAA!16s%2Fm%2F043s145?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2295,7 +3164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2324,13 +3193,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2361,12 +3243,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2670,15 +3557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView tabSelected="1" topLeftCell="D191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="82.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.7265625" customWidth="1"/>
+    <col min="4" max="4" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2686,20 +3574,20 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2710,13 +3598,13 @@
         <v>51.263900999999997</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2727,13 +3615,13 @@
         <v>49.284305000000003</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,13 +3632,13 @@
         <v>42.954009999999997</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,13 +3649,13 @@
         <v>46.083266999999999</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2778,13 +3666,13 @@
         <v>46.784045999999996</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,13 +3683,13 @@
         <v>45.774465999999997</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,13 +3700,13 @@
         <v>44.587784999999997</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,13 +3717,13 @@
         <v>42.904829999999997</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,13 +3734,13 @@
         <v>42.870148</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2863,13 +3751,13 @@
         <v>42.898752000000002</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2880,13 +3768,13 @@
         <v>41.733078999999996</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F12" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,13 +3785,13 @@
         <v>41.796866000000001</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F13" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2914,13 +3802,13 @@
         <v>43.604185000000001</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F14" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,13 +3819,13 @@
         <v>43.606476000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F15" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2948,13 +3836,13 @@
         <v>40.957068999999997</v>
       </c>
       <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2965,13 +3853,13 @@
         <v>40.987867999999999</v>
       </c>
       <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
         <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,13 +3870,13 @@
         <v>40.744961000000004</v>
       </c>
       <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,13 +3887,13 @@
         <v>40.596798</v>
       </c>
       <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,13 +3904,13 @@
         <v>40.574297000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3033,13 +3921,13 @@
         <v>39.998094000000002</v>
       </c>
       <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
         <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3050,13 +3938,13 @@
         <v>40.055207000000003</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F22" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,13 +3955,13 @@
         <v>39.883580000000002</v>
       </c>
       <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
         <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,13 +3972,13 @@
         <v>39.606946000000001</v>
       </c>
       <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
         <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,13 +3989,13 @@
         <v>39.125757999999998</v>
       </c>
       <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
         <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,13 +4006,13 @@
         <v>39.126153000000002</v>
       </c>
       <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
         <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,13 +4023,13 @@
         <v>38.882731999999997</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3152,13 +4040,13 @@
         <v>38.906812000000002</v>
       </c>
       <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
         <v>67</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,13 +4057,13 @@
         <v>38.856952999999997</v>
       </c>
       <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
         <v>70</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3186,13 +4074,13 @@
         <v>37.851976000000001</v>
       </c>
       <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
         <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3203,13 +4091,13 @@
         <v>37.403733000000003</v>
       </c>
       <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
         <v>76</v>
-      </c>
-      <c r="E31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,13 +4108,13 @@
         <v>37.420445999999998</v>
       </c>
       <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
         <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3237,13 +4125,13 @@
         <v>37.471820000000001</v>
       </c>
       <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
         <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,13 +4142,13 @@
         <v>30.562459</v>
       </c>
       <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
         <v>85</v>
-      </c>
-      <c r="E34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3271,13 +4159,13 @@
         <v>31.675405999999999</v>
       </c>
       <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" t="s">
         <v>88</v>
-      </c>
-      <c r="E35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3288,13 +4176,13 @@
         <v>32.014975999999997</v>
       </c>
       <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
         <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,13 +4193,13 @@
         <v>32.062162000000001</v>
       </c>
       <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
         <v>94</v>
-      </c>
-      <c r="E37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3322,13 +4210,13 @@
         <v>32.053907000000002</v>
       </c>
       <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
         <v>97</v>
-      </c>
-      <c r="E38" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3339,13 +4227,13 @@
         <v>31.184850999999998</v>
       </c>
       <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
         <v>100</v>
-      </c>
-      <c r="E39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3356,13 +4244,13 @@
         <v>31.096170000000001</v>
       </c>
       <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" t="s">
         <v>103</v>
-      </c>
-      <c r="E40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3373,13 +4261,13 @@
         <v>30.246054999999998</v>
       </c>
       <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s">
         <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3390,13 +4278,13 @@
         <v>30.237116</v>
       </c>
       <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" t="s">
         <v>109</v>
-      </c>
-      <c r="E42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3407,13 +4295,13 @@
         <v>30.196522999999999</v>
       </c>
       <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s">
         <v>112</v>
-      </c>
-      <c r="E43" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,13 +4312,13 @@
         <v>30.012591</v>
       </c>
       <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" t="s">
         <v>115</v>
-      </c>
-      <c r="E44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3441,13 +4329,13 @@
         <v>29.872389999999999</v>
       </c>
       <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" t="s">
         <v>118</v>
-      </c>
-      <c r="E45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3458,13 +4346,13 @@
         <v>29.766566999999998</v>
       </c>
       <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" t="s">
         <v>121</v>
-      </c>
-      <c r="E46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,13 +4363,13 @@
         <v>29.427603000000001</v>
       </c>
       <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
         <v>124</v>
-      </c>
-      <c r="E47" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3492,13 +4380,13 @@
         <v>37.608479000000003</v>
       </c>
       <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" t="s">
         <v>127</v>
-      </c>
-      <c r="E48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3509,13 +4397,13 @@
         <v>40.093361000000002</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F49" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3526,13 +4414,13 @@
         <v>32.179502999999997</v>
       </c>
       <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" t="s">
         <v>131</v>
-      </c>
-      <c r="E50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3543,13 +4431,13 @@
         <v>28.997430000000001</v>
       </c>
       <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" t="s">
         <v>134</v>
-      </c>
-      <c r="E51" t="s">
-        <v>135</v>
-      </c>
-      <c r="F51" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3560,13 +4448,13 @@
         <v>32.880212</v>
       </c>
       <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
         <v>137</v>
-      </c>
-      <c r="E52" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3577,13 +4465,13 @@
         <v>30.779857</v>
       </c>
       <c r="C53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" t="s">
         <v>140</v>
-      </c>
-      <c r="E53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3594,13 +4482,13 @@
         <v>29.729679999999998</v>
       </c>
       <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" t="s">
         <v>143</v>
-      </c>
-      <c r="E54" t="s">
-        <v>144</v>
-      </c>
-      <c r="F54" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3611,13 +4499,13 @@
         <v>35.919643000000001</v>
       </c>
       <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" t="s">
         <v>146</v>
-      </c>
-      <c r="E55" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3628,13 +4516,13 @@
         <v>36.855963000000003</v>
       </c>
       <c r="C56" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" t="s">
         <v>149</v>
-      </c>
-      <c r="E56" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,13 +4533,13 @@
         <v>35.640287999999998</v>
       </c>
       <c r="C57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" t="s">
         <v>152</v>
-      </c>
-      <c r="E57" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3662,13 +4550,13 @@
         <v>36.852530999999999</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F58" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3679,13 +4567,13 @@
         <v>27.700749999999999</v>
       </c>
       <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" t="s">
         <v>156</v>
-      </c>
-      <c r="E59" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,13 +4584,13 @@
         <v>25.905066999999999</v>
       </c>
       <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" t="s">
         <v>159</v>
-      </c>
-      <c r="E60" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3713,13 +4601,13 @@
         <v>26.952095</v>
       </c>
       <c r="C61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" t="s">
         <v>162</v>
-      </c>
-      <c r="E61" t="s">
-        <v>163</v>
-      </c>
-      <c r="F61" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3730,13 +4618,13 @@
         <v>23.050083000000001</v>
       </c>
       <c r="C62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" t="s">
         <v>165</v>
-      </c>
-      <c r="E62" t="s">
-        <v>166</v>
-      </c>
-      <c r="F62" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3747,13 +4635,13 @@
         <v>23.001975000000002</v>
       </c>
       <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" t="s">
         <v>168</v>
-      </c>
-      <c r="E63" t="s">
-        <v>169</v>
-      </c>
-      <c r="F63" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,13 +4652,13 @@
         <v>22.929473000000002</v>
       </c>
       <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" t="s">
         <v>171</v>
-      </c>
-      <c r="E64" t="s">
-        <v>172</v>
-      </c>
-      <c r="F64" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3781,13 +4669,13 @@
         <v>22.193058000000001</v>
       </c>
       <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" t="s">
+        <v>173</v>
+      </c>
+      <c r="F65" t="s">
         <v>174</v>
-      </c>
-      <c r="E65" t="s">
-        <v>175</v>
-      </c>
-      <c r="F65" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3798,13 +4686,13 @@
         <v>22.308686999999999</v>
       </c>
       <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" t="s">
+        <v>176</v>
+      </c>
+      <c r="F66" t="s">
         <v>177</v>
-      </c>
-      <c r="E66" t="s">
-        <v>178</v>
-      </c>
-      <c r="F66" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,13 +4703,13 @@
         <v>22.244375000000002</v>
       </c>
       <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" t="s">
+        <v>179</v>
+      </c>
+      <c r="F67" t="s">
         <v>180</v>
-      </c>
-      <c r="E67" t="s">
-        <v>181</v>
-      </c>
-      <c r="F67" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3832,13 +4720,13 @@
         <v>22.298964999999999</v>
       </c>
       <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" t="s">
+        <v>182</v>
+      </c>
+      <c r="F68" t="s">
         <v>183</v>
-      </c>
-      <c r="E68" t="s">
-        <v>184</v>
-      </c>
-      <c r="F68" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3849,13 +4737,13 @@
         <v>28.777615000000001</v>
       </c>
       <c r="C69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" t="s">
+        <v>185</v>
+      </c>
+      <c r="F69" t="s">
         <v>186</v>
-      </c>
-      <c r="E69" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3866,13 +4754,13 @@
         <v>30.548304999999999</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F70" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3883,13 +4771,13 @@
         <v>34.218400000000003</v>
       </c>
       <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" t="s">
         <v>190</v>
-      </c>
-      <c r="E71" t="s">
-        <v>191</v>
-      </c>
-      <c r="F71" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3900,13 +4788,13 @@
         <v>35.292816999999999</v>
       </c>
       <c r="C72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" t="s">
         <v>193</v>
-      </c>
-      <c r="E72" t="s">
-        <v>194</v>
-      </c>
-      <c r="F72" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3917,13 +4805,13 @@
         <v>35.462586000000002</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3934,13 +4822,13 @@
         <v>33.370139999999999</v>
       </c>
       <c r="C74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" t="s">
         <v>198</v>
-      </c>
-      <c r="E74" t="s">
-        <v>199</v>
-      </c>
-      <c r="F74" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3951,13 +4839,13 @@
         <v>31.405163999999999</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E75" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F75" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3968,13 +4856,13 @@
         <v>29.508084</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E76" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F76" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,13 +4873,13 @@
         <v>28.025191</v>
       </c>
       <c r="C77" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" t="s">
+        <v>202</v>
+      </c>
+      <c r="F77" t="s">
         <v>203</v>
-      </c>
-      <c r="E77" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,13 +4890,13 @@
         <v>24.187411000000001</v>
       </c>
       <c r="C78" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" t="s">
         <v>206</v>
-      </c>
-      <c r="E78" t="s">
-        <v>207</v>
-      </c>
-      <c r="F78" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4019,13 +4907,13 @@
         <v>19.497847</v>
       </c>
       <c r="C79" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" t="s">
         <v>209</v>
-      </c>
-      <c r="E79" t="s">
-        <v>210</v>
-      </c>
-      <c r="F79" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4036,13 +4924,13 @@
         <v>18.216842</v>
       </c>
       <c r="C80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" t="s">
+        <v>211</v>
+      </c>
+      <c r="F80" t="s">
         <v>212</v>
-      </c>
-      <c r="E80" t="s">
-        <v>213</v>
-      </c>
-      <c r="F80" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4053,13 +4941,13 @@
         <v>18.227903000000001</v>
       </c>
       <c r="C81" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" t="s">
         <v>215</v>
-      </c>
-      <c r="E81" t="s">
-        <v>216</v>
-      </c>
-      <c r="F81" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4070,13 +4958,13 @@
         <v>19.918106000000002</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E82" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4087,13 +4975,13 @@
         <v>21.401285999999999</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E83" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F83" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,13 +4992,13 @@
         <v>29.867805000000001</v>
       </c>
       <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" t="s">
+        <v>221</v>
+      </c>
+      <c r="F84" t="s">
         <v>222</v>
-      </c>
-      <c r="E84" t="s">
-        <v>223</v>
-      </c>
-      <c r="F84" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4121,13 +5009,13 @@
         <v>29.250592999999999</v>
       </c>
       <c r="C85" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E85" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F85" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4138,13 +5026,13 @@
         <v>29.648859999999999</v>
       </c>
       <c r="C86" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" t="s">
+        <v>225</v>
+      </c>
+      <c r="F86" t="s">
         <v>226</v>
-      </c>
-      <c r="E86" t="s">
-        <v>227</v>
-      </c>
-      <c r="F86" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,13 +5043,13 @@
         <v>26.899715</v>
       </c>
       <c r="C87" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" t="s">
+        <v>228</v>
+      </c>
+      <c r="F87" t="s">
         <v>229</v>
-      </c>
-      <c r="E87" t="s">
-        <v>230</v>
-      </c>
-      <c r="F87" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4172,13 +5060,13 @@
         <v>25.770970999999999</v>
       </c>
       <c r="C88" t="s">
+        <v>230</v>
+      </c>
+      <c r="E88" t="s">
+        <v>231</v>
+      </c>
+      <c r="F88" t="s">
         <v>232</v>
-      </c>
-      <c r="E88" t="s">
-        <v>233</v>
-      </c>
-      <c r="F88" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4189,13 +5077,13 @@
         <v>27.391233</v>
       </c>
       <c r="C89" t="s">
+        <v>233</v>
+      </c>
+      <c r="E89" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89" t="s">
         <v>235</v>
-      </c>
-      <c r="E89" t="s">
-        <v>236</v>
-      </c>
-      <c r="F89" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4206,13 +5094,13 @@
         <v>25.263393000000001</v>
       </c>
       <c r="C90" t="s">
+        <v>236</v>
+      </c>
+      <c r="E90" t="s">
+        <v>237</v>
+      </c>
+      <c r="F90" t="s">
         <v>238</v>
-      </c>
-      <c r="E90" t="s">
-        <v>239</v>
-      </c>
-      <c r="F90" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4223,13 +5111,13 @@
         <v>24.916931000000002</v>
       </c>
       <c r="C91" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" t="s">
+        <v>240</v>
+      </c>
+      <c r="F91" t="s">
         <v>241</v>
-      </c>
-      <c r="E91" t="s">
-        <v>242</v>
-      </c>
-      <c r="F91" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4240,13 +5128,13 @@
         <v>38.889490000000002</v>
       </c>
       <c r="C92" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" t="s">
         <v>244</v>
-      </c>
-      <c r="E92" t="s">
-        <v>245</v>
-      </c>
-      <c r="F92" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4257,16 +5145,16 @@
         <v>38.435891699999999</v>
       </c>
       <c r="C93" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" t="s">
+        <v>246</v>
+      </c>
+      <c r="E93" t="s">
         <v>247</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>248</v>
-      </c>
-      <c r="E93" t="s">
-        <v>249</v>
-      </c>
-      <c r="F93" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4277,16 +5165,16 @@
         <v>36.553621300000003</v>
       </c>
       <c r="C94" t="s">
+        <v>249</v>
+      </c>
+      <c r="D94" t="s">
+        <v>250</v>
+      </c>
+      <c r="E94" t="s">
         <v>251</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>252</v>
-      </c>
-      <c r="E94" t="s">
-        <v>253</v>
-      </c>
-      <c r="F94" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4297,16 +5185,16 @@
         <v>27.825610900000001</v>
       </c>
       <c r="C95" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" t="s">
+        <v>254</v>
+      </c>
+      <c r="E95" t="s">
         <v>255</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>256</v>
-      </c>
-      <c r="E95" t="s">
-        <v>257</v>
-      </c>
-      <c r="F95" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4317,16 +5205,16 @@
         <v>37.6188383</v>
       </c>
       <c r="C96" t="s">
+        <v>257</v>
+      </c>
+      <c r="D96" t="s">
+        <v>258</v>
+      </c>
+      <c r="E96" t="s">
         <v>259</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>260</v>
-      </c>
-      <c r="E96" t="s">
-        <v>261</v>
-      </c>
-      <c r="F96" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4337,16 +5225,16 @@
         <v>42.956062000000003</v>
       </c>
       <c r="C97" t="s">
+        <v>261</v>
+      </c>
+      <c r="D97" t="s">
+        <v>262</v>
+      </c>
+      <c r="E97" t="s">
         <v>263</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
         <v>264</v>
-      </c>
-      <c r="E97" t="s">
-        <v>265</v>
-      </c>
-      <c r="F97" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4357,16 +5245,16 @@
         <v>43.887985</v>
       </c>
       <c r="C98" t="s">
+        <v>265</v>
+      </c>
+      <c r="D98" t="s">
+        <v>266</v>
+      </c>
+      <c r="E98" t="s">
         <v>267</v>
       </c>
-      <c r="D98" t="s">
+      <c r="F98" t="s">
         <v>268</v>
-      </c>
-      <c r="E98" t="s">
-        <v>269</v>
-      </c>
-      <c r="F98" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4377,16 +5265,16 @@
         <v>41.227228500000002</v>
       </c>
       <c r="C99" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E99" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F99" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4397,16 +5285,16 @@
         <v>27.8325195</v>
       </c>
       <c r="C100" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" t="s">
+        <v>272</v>
+      </c>
+      <c r="E100" t="s">
         <v>273</v>
       </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
         <v>274</v>
-      </c>
-      <c r="E100" t="s">
-        <v>275</v>
-      </c>
-      <c r="F100" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4417,16 +5305,16 @@
         <v>28.997430000000001</v>
       </c>
       <c r="C101" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D101" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4437,16 +5325,16 @@
         <v>31.174752699999999</v>
       </c>
       <c r="C102" t="s">
+        <v>277</v>
+      </c>
+      <c r="D102" t="s">
+        <v>278</v>
+      </c>
+      <c r="E102" t="s">
         <v>279</v>
       </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
         <v>280</v>
-      </c>
-      <c r="E102" t="s">
-        <v>281</v>
-      </c>
-      <c r="F102" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4457,16 +5345,16 @@
         <v>31.411294999999999</v>
       </c>
       <c r="C103" t="s">
+        <v>281</v>
+      </c>
+      <c r="D103" t="s">
+        <v>282</v>
+      </c>
+      <c r="E103" t="s">
         <v>283</v>
       </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
         <v>284</v>
-      </c>
-      <c r="E103" t="s">
-        <v>285</v>
-      </c>
-      <c r="F103" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4477,16 +5365,16 @@
         <v>26.64303</v>
       </c>
       <c r="C104" t="s">
+        <v>285</v>
+      </c>
+      <c r="D104" t="s">
+        <v>286</v>
+      </c>
+      <c r="E104" t="s">
         <v>287</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>288</v>
-      </c>
-      <c r="E104" t="s">
-        <v>289</v>
-      </c>
-      <c r="F104" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4497,16 +5385,16 @@
         <v>34.214699899999999</v>
       </c>
       <c r="C105" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" t="s">
+        <v>290</v>
+      </c>
+      <c r="E105" t="s">
+        <v>673</v>
+      </c>
+      <c r="F105" t="s">
         <v>291</v>
-      </c>
-      <c r="D105" t="s">
-        <v>292</v>
-      </c>
-      <c r="E105" t="s">
-        <v>676</v>
-      </c>
-      <c r="F105" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4517,16 +5405,16 @@
         <v>42.835804699999997</v>
       </c>
       <c r="C106" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" t="s">
+        <v>293</v>
+      </c>
+      <c r="E106" t="s">
         <v>294</v>
       </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
         <v>295</v>
-      </c>
-      <c r="E106" t="s">
-        <v>296</v>
-      </c>
-      <c r="F106" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4537,16 +5425,16 @@
         <v>39.041229999999999</v>
       </c>
       <c r="C107" t="s">
+        <v>296</v>
+      </c>
+      <c r="D107" t="s">
+        <v>297</v>
+      </c>
+      <c r="E107" t="s">
         <v>298</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
         <v>299</v>
-      </c>
-      <c r="E107" t="s">
-        <v>300</v>
-      </c>
-      <c r="F107" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4557,16 +5445,16 @@
         <v>34.955125099999997</v>
       </c>
       <c r="C108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D108" t="s">
+        <v>301</v>
+      </c>
+      <c r="E108" t="s">
         <v>302</v>
       </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
         <v>303</v>
-      </c>
-      <c r="E108" t="s">
-        <v>304</v>
-      </c>
-      <c r="F108" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4577,16 +5465,16 @@
         <v>34.076874400000001</v>
       </c>
       <c r="C109" t="s">
+        <v>304</v>
+      </c>
+      <c r="D109" t="s">
+        <v>305</v>
+      </c>
+      <c r="E109" t="s">
         <v>306</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
         <v>307</v>
-      </c>
-      <c r="E109" t="s">
-        <v>308</v>
-      </c>
-      <c r="F109" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4597,16 +5485,16 @@
         <v>39.165924099999998</v>
       </c>
       <c r="C110" t="s">
+        <v>308</v>
+      </c>
+      <c r="D110" t="s">
+        <v>309</v>
+      </c>
+      <c r="E110" t="s">
         <v>310</v>
       </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
         <v>311</v>
-      </c>
-      <c r="E110" t="s">
-        <v>312</v>
-      </c>
-      <c r="F110" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4617,16 +5505,16 @@
         <v>39.166589999999999</v>
       </c>
       <c r="C111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D111" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E111" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F111" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4637,16 +5525,16 @@
         <v>30.152579200000002</v>
       </c>
       <c r="C112" t="s">
+        <v>314</v>
+      </c>
+      <c r="D112" t="s">
+        <v>315</v>
+      </c>
+      <c r="E112" t="s">
         <v>316</v>
       </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
         <v>317</v>
-      </c>
-      <c r="E112" t="s">
-        <v>318</v>
-      </c>
-      <c r="F112" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4657,16 +5545,16 @@
         <v>37.694725699999999</v>
       </c>
       <c r="C113" t="s">
+        <v>318</v>
+      </c>
+      <c r="D113" t="s">
+        <v>319</v>
+      </c>
+      <c r="E113" t="s">
         <v>320</v>
       </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
         <v>321</v>
-      </c>
-      <c r="E113" t="s">
-        <v>322</v>
-      </c>
-      <c r="F113" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4677,16 +5565,16 @@
         <v>49.487248800000003</v>
       </c>
       <c r="C114" t="s">
+        <v>322</v>
+      </c>
+      <c r="D114" t="s">
+        <v>323</v>
+      </c>
+      <c r="E114" t="s">
         <v>324</v>
       </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
         <v>325</v>
-      </c>
-      <c r="E114" t="s">
-        <v>326</v>
-      </c>
-      <c r="F114" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4697,16 +5585,16 @@
         <v>32.422771500000003</v>
       </c>
       <c r="C115" t="s">
+        <v>326</v>
+      </c>
+      <c r="D115" t="s">
+        <v>327</v>
+      </c>
+      <c r="E115" t="s">
         <v>328</v>
       </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
         <v>329</v>
-      </c>
-      <c r="E115" t="s">
-        <v>330</v>
-      </c>
-      <c r="F115" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4717,16 +5605,16 @@
         <v>31.879715000000001</v>
       </c>
       <c r="C116" t="s">
+        <v>330</v>
+      </c>
+      <c r="D116" t="s">
+        <v>331</v>
+      </c>
+      <c r="E116" t="s">
+        <v>674</v>
+      </c>
+      <c r="F116" t="s">
         <v>332</v>
-      </c>
-      <c r="D116" t="s">
-        <v>333</v>
-      </c>
-      <c r="E116" t="s">
-        <v>677</v>
-      </c>
-      <c r="F116" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4737,16 +5625,16 @@
         <v>34.6822284</v>
       </c>
       <c r="C117" t="s">
+        <v>333</v>
+      </c>
+      <c r="D117" t="s">
+        <v>334</v>
+      </c>
+      <c r="E117" t="s">
         <v>335</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
         <v>336</v>
-      </c>
-      <c r="E117" t="s">
-        <v>337</v>
-      </c>
-      <c r="F117" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4757,16 +5645,16 @@
         <v>29.4401741</v>
       </c>
       <c r="C118" t="s">
+        <v>337</v>
+      </c>
+      <c r="D118" t="s">
+        <v>338</v>
+      </c>
+      <c r="E118" t="s">
         <v>339</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
         <v>340</v>
-      </c>
-      <c r="E118" t="s">
-        <v>341</v>
-      </c>
-      <c r="F118" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4777,16 +5665,16 @@
         <v>31.372914000000002</v>
       </c>
       <c r="C119" t="s">
+        <v>341</v>
+      </c>
+      <c r="D119" t="s">
+        <v>342</v>
+      </c>
+      <c r="E119" t="s">
         <v>343</v>
       </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
         <v>344</v>
-      </c>
-      <c r="E119" t="s">
-        <v>345</v>
-      </c>
-      <c r="F119" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4797,16 +5685,16 @@
         <v>30.644893700000001</v>
       </c>
       <c r="C120" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" t="s">
+        <v>346</v>
+      </c>
+      <c r="E120" t="s">
         <v>347</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
         <v>348</v>
-      </c>
-      <c r="E120" t="s">
-        <v>349</v>
-      </c>
-      <c r="F120" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4817,16 +5705,16 @@
         <v>30.656086699999999</v>
       </c>
       <c r="C121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" t="s">
+        <v>350</v>
+      </c>
+      <c r="E121" t="s">
+        <v>675</v>
+      </c>
+      <c r="F121" t="s">
         <v>351</v>
-      </c>
-      <c r="D121" t="s">
-        <v>352</v>
-      </c>
-      <c r="E121" t="s">
-        <v>678</v>
-      </c>
-      <c r="F121" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4837,16 +5725,16 @@
         <v>30.663922500000002</v>
       </c>
       <c r="C122" t="s">
+        <v>352</v>
+      </c>
+      <c r="D122" t="s">
+        <v>353</v>
+      </c>
+      <c r="E122" t="s">
         <v>354</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>355</v>
-      </c>
-      <c r="E122" t="s">
-        <v>356</v>
-      </c>
-      <c r="F122" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4857,16 +5745,16 @@
         <v>29.554095100000001</v>
       </c>
       <c r="C123" t="s">
+        <v>356</v>
+      </c>
+      <c r="D123" t="s">
+        <v>357</v>
+      </c>
+      <c r="E123" t="s">
         <v>358</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>359</v>
-      </c>
-      <c r="E123" t="s">
-        <v>360</v>
-      </c>
-      <c r="F123" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4877,16 +5765,16 @@
         <v>36.094169600000001</v>
       </c>
       <c r="C124" t="s">
+        <v>360</v>
+      </c>
+      <c r="D124" t="s">
+        <v>361</v>
+      </c>
+      <c r="E124" t="s">
         <v>362</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
         <v>363</v>
-      </c>
-      <c r="E124" t="s">
-        <v>364</v>
-      </c>
-      <c r="F124" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4897,16 +5785,16 @@
         <v>34.237772200000002</v>
       </c>
       <c r="C125" t="s">
+        <v>364</v>
+      </c>
+      <c r="D125" t="s">
+        <v>365</v>
+      </c>
+      <c r="E125" t="s">
         <v>366</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>367</v>
-      </c>
-      <c r="E125" t="s">
-        <v>368</v>
-      </c>
-      <c r="F125" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4917,16 +5805,16 @@
         <v>38.290250800000003</v>
       </c>
       <c r="C126" t="s">
+        <v>368</v>
+      </c>
+      <c r="D126" t="s">
+        <v>369</v>
+      </c>
+      <c r="E126" t="s">
         <v>370</v>
       </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
         <v>371</v>
-      </c>
-      <c r="E126" t="s">
-        <v>372</v>
-      </c>
-      <c r="F126" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4937,16 +5825,16 @@
         <v>36.098669800000003</v>
       </c>
       <c r="C127" t="s">
+        <v>372</v>
+      </c>
+      <c r="D127" t="s">
+        <v>373</v>
+      </c>
+      <c r="E127" t="s">
         <v>374</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
         <v>375</v>
-      </c>
-      <c r="E127" t="s">
-        <v>376</v>
-      </c>
-      <c r="F127" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4957,16 +5845,16 @@
         <v>25.8294353</v>
       </c>
       <c r="C128" t="s">
+        <v>376</v>
+      </c>
+      <c r="D128" t="s">
+        <v>377</v>
+      </c>
+      <c r="E128" t="s">
         <v>378</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
         <v>379</v>
-      </c>
-      <c r="E128" t="s">
-        <v>380</v>
-      </c>
-      <c r="F128" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4977,16 +5865,16 @@
         <v>24.337466200000001</v>
       </c>
       <c r="C129" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D129" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E129" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F129" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4997,16 +5885,16 @@
         <v>25.969353300000002</v>
       </c>
       <c r="C130" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D130" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E130" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F130" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -5017,16 +5905,16 @@
         <v>18.873737899999998</v>
       </c>
       <c r="C131" t="s">
+        <v>384</v>
+      </c>
+      <c r="D131" t="s">
+        <v>385</v>
+      </c>
+      <c r="E131" t="s">
         <v>386</v>
       </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
         <v>387</v>
-      </c>
-      <c r="E131" t="s">
-        <v>388</v>
-      </c>
-      <c r="F131" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -5037,16 +5925,16 @@
         <v>18.446366399999999</v>
       </c>
       <c r="C132" t="s">
+        <v>388</v>
+      </c>
+      <c r="D132" t="s">
+        <v>389</v>
+      </c>
+      <c r="E132" t="s">
         <v>390</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>391</v>
-      </c>
-      <c r="E132" t="s">
-        <v>392</v>
-      </c>
-      <c r="F132" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5057,16 +5945,16 @@
         <v>19.667387699999999</v>
       </c>
       <c r="C133" t="s">
+        <v>392</v>
+      </c>
+      <c r="D133" t="s">
+        <v>393</v>
+      </c>
+      <c r="E133" t="s">
         <v>394</v>
       </c>
-      <c r="D133" t="s">
+      <c r="F133" t="s">
         <v>395</v>
-      </c>
-      <c r="E133" t="s">
-        <v>396</v>
-      </c>
-      <c r="F133" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -5077,16 +5965,16 @@
         <v>19.663770899999999</v>
       </c>
       <c r="C134" t="s">
+        <v>396</v>
+      </c>
+      <c r="D134" t="s">
+        <v>397</v>
+      </c>
+      <c r="E134" t="s">
         <v>398</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>399</v>
-      </c>
-      <c r="E134" t="s">
-        <v>400</v>
-      </c>
-      <c r="F134" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5097,16 +5985,16 @@
         <v>22.818650699999999</v>
       </c>
       <c r="C135" t="s">
+        <v>400</v>
+      </c>
+      <c r="D135" t="s">
+        <v>401</v>
+      </c>
+      <c r="E135" t="s">
         <v>402</v>
       </c>
-      <c r="D135" t="s">
+      <c r="F135" t="s">
         <v>403</v>
-      </c>
-      <c r="E135" t="s">
-        <v>404</v>
-      </c>
-      <c r="F135" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5117,16 +6005,16 @@
         <v>22.785330600000002</v>
       </c>
       <c r="C136" t="s">
+        <v>404</v>
+      </c>
+      <c r="D136" t="s">
+        <v>405</v>
+      </c>
+      <c r="E136" t="s">
         <v>406</v>
       </c>
-      <c r="D136" t="s">
+      <c r="F136" t="s">
         <v>407</v>
-      </c>
-      <c r="E136" t="s">
-        <v>408</v>
-      </c>
-      <c r="F136" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5137,16 +6025,16 @@
         <v>24.305841099999999</v>
       </c>
       <c r="C137" t="s">
+        <v>408</v>
+      </c>
+      <c r="D137" t="s">
+        <v>409</v>
+      </c>
+      <c r="E137" t="s">
         <v>410</v>
       </c>
-      <c r="D137" t="s">
+      <c r="F137" t="s">
         <v>411</v>
-      </c>
-      <c r="E137" t="s">
-        <v>412</v>
-      </c>
-      <c r="F137" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5157,16 +6045,16 @@
         <v>24.276216999999999</v>
       </c>
       <c r="C138" t="s">
+        <v>412</v>
+      </c>
+      <c r="D138" t="s">
+        <v>413</v>
+      </c>
+      <c r="E138" t="s">
         <v>414</v>
       </c>
-      <c r="D138" t="s">
+      <c r="F138" t="s">
         <v>415</v>
-      </c>
-      <c r="E138" t="s">
-        <v>416</v>
-      </c>
-      <c r="F138" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5177,16 +6065,16 @@
         <v>23.470341699999999</v>
       </c>
       <c r="C139" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D139" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E139" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F139" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5197,16 +6085,16 @@
         <v>22.494668999999998</v>
       </c>
       <c r="C140" t="s">
+        <v>418</v>
+      </c>
+      <c r="D140" t="s">
+        <v>419</v>
+      </c>
+      <c r="E140" t="s">
         <v>420</v>
       </c>
-      <c r="D140" t="s">
+      <c r="F140" t="s">
         <v>421</v>
-      </c>
-      <c r="E140" t="s">
-        <v>422</v>
-      </c>
-      <c r="F140" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5217,16 +6105,16 @@
         <v>22.4007486</v>
       </c>
       <c r="C141" t="s">
+        <v>422</v>
+      </c>
+      <c r="D141" t="s">
+        <v>423</v>
+      </c>
+      <c r="E141" t="s">
         <v>424</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
         <v>425</v>
-      </c>
-      <c r="E141" t="s">
-        <v>426</v>
-      </c>
-      <c r="F141" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5237,16 +6125,16 @@
         <v>22.317770899999999</v>
       </c>
       <c r="C142" t="s">
+        <v>426</v>
+      </c>
+      <c r="D142" t="s">
+        <v>427</v>
+      </c>
+      <c r="E142" t="s">
         <v>428</v>
       </c>
-      <c r="D142" t="s">
+      <c r="F142" t="s">
         <v>429</v>
-      </c>
-      <c r="E142" t="s">
-        <v>430</v>
-      </c>
-      <c r="F142" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5257,16 +6145,16 @@
         <v>22.282564499999999</v>
       </c>
       <c r="C143" t="s">
+        <v>430</v>
+      </c>
+      <c r="D143" t="s">
+        <v>431</v>
+      </c>
+      <c r="E143" t="s">
         <v>432</v>
       </c>
-      <c r="D143" t="s">
+      <c r="F143" t="s">
         <v>433</v>
-      </c>
-      <c r="E143" t="s">
-        <v>434</v>
-      </c>
-      <c r="F143" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -5277,16 +6165,16 @@
         <v>22.2689655</v>
       </c>
       <c r="C144" t="s">
+        <v>434</v>
+      </c>
+      <c r="D144" t="s">
+        <v>435</v>
+      </c>
+      <c r="E144" t="s">
         <v>436</v>
       </c>
-      <c r="D144" t="s">
+      <c r="F144" t="s">
         <v>437</v>
-      </c>
-      <c r="E144" t="s">
-        <v>438</v>
-      </c>
-      <c r="F144" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5297,16 +6185,16 @@
         <v>22.243917400000001</v>
       </c>
       <c r="C145" t="s">
+        <v>438</v>
+      </c>
+      <c r="D145" t="s">
+        <v>439</v>
+      </c>
+      <c r="E145" t="s">
+        <v>676</v>
+      </c>
+      <c r="F145" t="s">
         <v>440</v>
-      </c>
-      <c r="D145" t="s">
-        <v>441</v>
-      </c>
-      <c r="E145" t="s">
-        <v>679</v>
-      </c>
-      <c r="F145" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5317,16 +6205,16 @@
         <v>22.447233399999998</v>
       </c>
       <c r="C146" t="s">
+        <v>441</v>
+      </c>
+      <c r="D146" t="s">
+        <v>442</v>
+      </c>
+      <c r="E146" t="s">
         <v>443</v>
       </c>
-      <c r="D146" t="s">
+      <c r="F146" t="s">
         <v>444</v>
-      </c>
-      <c r="E146" t="s">
-        <v>445</v>
-      </c>
-      <c r="F146" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5337,16 +6225,16 @@
         <v>23.116244900000002</v>
       </c>
       <c r="C147" t="s">
+        <v>445</v>
+      </c>
+      <c r="D147" t="s">
+        <v>446</v>
+      </c>
+      <c r="E147" t="s">
         <v>447</v>
       </c>
-      <c r="D147" t="s">
+      <c r="F147" t="s">
         <v>448</v>
-      </c>
-      <c r="E147" t="s">
-        <v>449</v>
-      </c>
-      <c r="F147" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5357,16 +6245,16 @@
         <v>22.719398999999999</v>
       </c>
       <c r="C148" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D148" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E148" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F148" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5377,16 +6265,16 @@
         <v>23.0043814</v>
       </c>
       <c r="C149" t="s">
+        <v>451</v>
+      </c>
+      <c r="D149" t="s">
+        <v>452</v>
+      </c>
+      <c r="E149" t="s">
         <v>453</v>
       </c>
-      <c r="D149" t="s">
+      <c r="F149" t="s">
         <v>454</v>
-      </c>
-      <c r="E149" t="s">
-        <v>455</v>
-      </c>
-      <c r="F149" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5397,16 +6285,16 @@
         <v>23.661860000000001</v>
       </c>
       <c r="C150" t="s">
+        <v>455</v>
+      </c>
+      <c r="D150" t="s">
+        <v>456</v>
+      </c>
+      <c r="E150" t="s">
         <v>457</v>
       </c>
-      <c r="D150" t="s">
+      <c r="F150" t="s">
         <v>458</v>
-      </c>
-      <c r="E150" t="s">
-        <v>459</v>
-      </c>
-      <c r="F150" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5417,16 +6305,16 @@
         <v>23.9494699</v>
       </c>
       <c r="C151" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D151" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E151" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F151" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5437,16 +6325,16 @@
         <v>28.0922713</v>
       </c>
       <c r="C152" t="s">
+        <v>461</v>
+      </c>
+      <c r="D152" t="s">
+        <v>462</v>
+      </c>
+      <c r="E152" t="s">
         <v>463</v>
       </c>
-      <c r="D152" t="s">
+      <c r="F152" t="s">
         <v>464</v>
-      </c>
-      <c r="E152" t="s">
-        <v>465</v>
-      </c>
-      <c r="F152" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5457,16 +6345,16 @@
         <v>29.7528428</v>
       </c>
       <c r="C153" t="s">
+        <v>465</v>
+      </c>
+      <c r="D153" t="s">
+        <v>466</v>
+      </c>
+      <c r="E153" t="s">
         <v>467</v>
       </c>
-      <c r="D153" t="s">
+      <c r="F153" t="s">
         <v>468</v>
-      </c>
-      <c r="E153" t="s">
-        <v>469</v>
-      </c>
-      <c r="F153" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5477,16 +6365,16 @@
         <v>28.900344799999999</v>
       </c>
       <c r="C154" t="s">
+        <v>469</v>
+      </c>
+      <c r="D154" t="s">
+        <v>470</v>
+      </c>
+      <c r="E154" t="s">
         <v>471</v>
       </c>
-      <c r="D154" t="s">
+      <c r="F154" t="s">
         <v>472</v>
-      </c>
-      <c r="E154" t="s">
-        <v>473</v>
-      </c>
-      <c r="F154" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5497,16 +6385,16 @@
         <v>28.273378999999998</v>
       </c>
       <c r="C155" t="s">
+        <v>473</v>
+      </c>
+      <c r="D155" t="s">
+        <v>474</v>
+      </c>
+      <c r="E155" t="s">
         <v>475</v>
       </c>
-      <c r="D155" t="s">
+      <c r="F155" t="s">
         <v>476</v>
-      </c>
-      <c r="E155" t="s">
-        <v>477</v>
-      </c>
-      <c r="F155" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5517,16 +6405,16 @@
         <v>30.097259300000001</v>
       </c>
       <c r="C156" t="s">
+        <v>477</v>
+      </c>
+      <c r="D156" t="s">
+        <v>478</v>
+      </c>
+      <c r="E156" t="s">
         <v>479</v>
       </c>
-      <c r="D156" t="s">
+      <c r="F156" t="s">
         <v>480</v>
-      </c>
-      <c r="E156" t="s">
-        <v>481</v>
-      </c>
-      <c r="F156" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5537,16 +6425,16 @@
         <v>27.336009000000001</v>
       </c>
       <c r="C157" t="s">
+        <v>481</v>
+      </c>
+      <c r="D157" t="s">
+        <v>482</v>
+      </c>
+      <c r="E157" t="s">
         <v>483</v>
       </c>
-      <c r="D157" t="s">
+      <c r="F157" t="s">
         <v>484</v>
-      </c>
-      <c r="E157" t="s">
-        <v>485</v>
-      </c>
-      <c r="F157" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5557,16 +6445,16 @@
         <v>24.133888500000001</v>
       </c>
       <c r="C158" t="s">
+        <v>485</v>
+      </c>
+      <c r="D158" t="s">
+        <v>486</v>
+      </c>
+      <c r="E158" t="s">
         <v>487</v>
       </c>
-      <c r="D158" t="s">
+      <c r="F158" t="s">
         <v>488</v>
-      </c>
-      <c r="E158" t="s">
-        <v>489</v>
-      </c>
-      <c r="F158" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5577,16 +6465,16 @@
         <v>23.390109599999999</v>
       </c>
       <c r="C159" t="s">
+        <v>489</v>
+      </c>
+      <c r="D159" t="s">
+        <v>490</v>
+      </c>
+      <c r="E159" t="s">
         <v>491</v>
       </c>
-      <c r="D159" t="s">
+      <c r="F159" t="s">
         <v>492</v>
-      </c>
-      <c r="E159" t="s">
-        <v>493</v>
-      </c>
-      <c r="F159" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,16 +6485,16 @@
         <v>23.084780500000001</v>
       </c>
       <c r="C160" t="s">
+        <v>493</v>
+      </c>
+      <c r="D160" t="s">
+        <v>494</v>
+      </c>
+      <c r="E160" t="s">
         <v>495</v>
       </c>
-      <c r="D160" t="s">
+      <c r="F160" t="s">
         <v>496</v>
-      </c>
-      <c r="E160" t="s">
-        <v>497</v>
-      </c>
-      <c r="F160" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5617,16 +6505,16 @@
         <v>22.800456799999999</v>
       </c>
       <c r="C161" t="s">
+        <v>497</v>
+      </c>
+      <c r="D161" t="s">
+        <v>498</v>
+      </c>
+      <c r="E161" t="s">
         <v>499</v>
       </c>
-      <c r="D161" t="s">
+      <c r="F161" t="s">
         <v>500</v>
-      </c>
-      <c r="E161" t="s">
-        <v>501</v>
-      </c>
-      <c r="F161" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5637,16 +6525,16 @@
         <v>22.7800422</v>
       </c>
       <c r="C162" t="s">
+        <v>501</v>
+      </c>
+      <c r="D162" t="s">
+        <v>502</v>
+      </c>
+      <c r="E162" t="s">
         <v>503</v>
       </c>
-      <c r="D162" t="s">
-        <v>504</v>
-      </c>
-      <c r="E162" t="s">
-        <v>505</v>
-      </c>
       <c r="F162" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5657,16 +6545,16 @@
         <v>22.815546000000001</v>
       </c>
       <c r="C163" t="s">
+        <v>504</v>
+      </c>
+      <c r="D163" t="s">
+        <v>505</v>
+      </c>
+      <c r="E163" t="s">
         <v>506</v>
       </c>
-      <c r="D163" t="s">
-        <v>507</v>
-      </c>
-      <c r="E163" t="s">
-        <v>508</v>
-      </c>
       <c r="F163" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5677,16 +6565,16 @@
         <v>23.092376900000001</v>
       </c>
       <c r="C164" t="s">
+        <v>507</v>
+      </c>
+      <c r="D164" t="s">
+        <v>508</v>
+      </c>
+      <c r="E164" t="s">
         <v>509</v>
       </c>
-      <c r="D164" t="s">
+      <c r="F164" t="s">
         <v>510</v>
-      </c>
-      <c r="E164" t="s">
-        <v>511</v>
-      </c>
-      <c r="F164" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5697,16 +6585,16 @@
         <v>22.9535096</v>
       </c>
       <c r="C165" t="s">
+        <v>511</v>
+      </c>
+      <c r="D165" t="s">
+        <v>512</v>
+      </c>
+      <c r="E165" t="s">
         <v>513</v>
       </c>
-      <c r="D165" t="s">
+      <c r="F165" t="s">
         <v>514</v>
-      </c>
-      <c r="E165" t="s">
-        <v>515</v>
-      </c>
-      <c r="F165" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5717,16 +6605,16 @@
         <v>20.911528000000001</v>
       </c>
       <c r="C166" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D166" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E166" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F166" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5737,16 +6625,16 @@
         <v>18.777584999999998</v>
       </c>
       <c r="C167" t="s">
+        <v>517</v>
+      </c>
+      <c r="D167" t="s">
+        <v>518</v>
+      </c>
+      <c r="E167" t="s">
         <v>519</v>
       </c>
-      <c r="D167" t="s">
+      <c r="F167" t="s">
         <v>520</v>
-      </c>
-      <c r="E167" t="s">
-        <v>521</v>
-      </c>
-      <c r="F167" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5757,16 +6645,16 @@
         <v>18.8393917</v>
       </c>
       <c r="C168" t="s">
+        <v>521</v>
+      </c>
+      <c r="D168" t="s">
+        <v>522</v>
+      </c>
+      <c r="E168" t="s">
         <v>523</v>
       </c>
-      <c r="D168" t="s">
+      <c r="F168" t="s">
         <v>524</v>
-      </c>
-      <c r="E168" t="s">
-        <v>525</v>
-      </c>
-      <c r="F168" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5777,16 +6665,16 @@
         <v>23.114177099999999</v>
       </c>
       <c r="C169" t="s">
+        <v>525</v>
+      </c>
+      <c r="D169" t="s">
+        <v>526</v>
+      </c>
+      <c r="E169" t="s">
         <v>527</v>
       </c>
-      <c r="D169" t="s">
+      <c r="F169" t="s">
         <v>528</v>
-      </c>
-      <c r="E169" t="s">
-        <v>529</v>
-      </c>
-      <c r="F169" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5797,16 +6685,16 @@
         <v>23.108720600000002</v>
       </c>
       <c r="C170" t="s">
+        <v>529</v>
+      </c>
+      <c r="D170" t="s">
+        <v>530</v>
+      </c>
+      <c r="E170" t="s">
         <v>531</v>
       </c>
-      <c r="D170" t="s">
+      <c r="F170" t="s">
         <v>532</v>
-      </c>
-      <c r="E170" t="s">
-        <v>533</v>
-      </c>
-      <c r="F170" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5817,16 +6705,16 @@
         <v>23.007319200000001</v>
       </c>
       <c r="C171" t="s">
+        <v>533</v>
+      </c>
+      <c r="D171" t="s">
+        <v>534</v>
+      </c>
+      <c r="E171" t="s">
         <v>535</v>
       </c>
-      <c r="D171" t="s">
+      <c r="F171" t="s">
         <v>536</v>
-      </c>
-      <c r="E171" t="s">
-        <v>537</v>
-      </c>
-      <c r="F171" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5837,16 +6725,16 @@
         <v>23.0420652</v>
       </c>
       <c r="C172" t="s">
+        <v>537</v>
+      </c>
+      <c r="D172" t="s">
+        <v>538</v>
+      </c>
+      <c r="E172" t="s">
         <v>539</v>
       </c>
-      <c r="D172" t="s">
+      <c r="F172" t="s">
         <v>540</v>
-      </c>
-      <c r="E172" t="s">
-        <v>541</v>
-      </c>
-      <c r="F172" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5857,16 +6745,16 @@
         <v>22.157520099999999</v>
       </c>
       <c r="C173" t="s">
+        <v>541</v>
+      </c>
+      <c r="D173" t="s">
+        <v>542</v>
+      </c>
+      <c r="E173" t="s">
         <v>543</v>
       </c>
-      <c r="D173" t="s">
+      <c r="F173" t="s">
         <v>544</v>
-      </c>
-      <c r="E173" t="s">
-        <v>545</v>
-      </c>
-      <c r="F173" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5877,16 +6765,16 @@
         <v>22.142555600000001</v>
       </c>
       <c r="C174" t="s">
+        <v>545</v>
+      </c>
+      <c r="D174" t="s">
+        <v>546</v>
+      </c>
+      <c r="E174" t="s">
         <v>547</v>
       </c>
-      <c r="D174" t="s">
+      <c r="F174" t="s">
         <v>548</v>
-      </c>
-      <c r="E174" t="s">
-        <v>549</v>
-      </c>
-      <c r="F174" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5897,16 +6785,16 @@
         <v>22.395287</v>
       </c>
       <c r="C175" t="s">
+        <v>549</v>
+      </c>
+      <c r="D175" t="s">
+        <v>550</v>
+      </c>
+      <c r="E175" t="s">
         <v>551</v>
       </c>
-      <c r="D175" t="s">
+      <c r="F175" t="s">
         <v>552</v>
-      </c>
-      <c r="E175" t="s">
-        <v>553</v>
-      </c>
-      <c r="F175" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5917,16 +6805,16 @@
         <v>22.382153200000001</v>
       </c>
       <c r="C176" t="s">
+        <v>553</v>
+      </c>
+      <c r="D176" t="s">
+        <v>554</v>
+      </c>
+      <c r="E176" t="s">
         <v>555</v>
       </c>
-      <c r="D176" t="s">
+      <c r="F176" t="s">
         <v>556</v>
-      </c>
-      <c r="E176" t="s">
-        <v>557</v>
-      </c>
-      <c r="F176" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5937,16 +6825,16 @@
         <v>22.290026000000001</v>
       </c>
       <c r="C177" t="s">
+        <v>557</v>
+      </c>
+      <c r="D177" t="s">
+        <v>558</v>
+      </c>
+      <c r="E177" t="s">
         <v>559</v>
       </c>
-      <c r="D177" t="s">
+      <c r="F177" t="s">
         <v>560</v>
-      </c>
-      <c r="E177" t="s">
-        <v>561</v>
-      </c>
-      <c r="F177" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5957,16 +6845,16 @@
         <v>23.5407388</v>
       </c>
       <c r="C178" t="s">
+        <v>561</v>
+      </c>
+      <c r="D178" t="s">
+        <v>562</v>
+      </c>
+      <c r="E178" t="s">
         <v>563</v>
       </c>
-      <c r="D178" t="s">
+      <c r="F178" t="s">
         <v>564</v>
-      </c>
-      <c r="E178" t="s">
-        <v>565</v>
-      </c>
-      <c r="F178" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5977,16 +6865,16 @@
         <v>23.9494699</v>
       </c>
       <c r="C179" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D179" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E179" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F179" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5997,16 +6885,16 @@
         <v>23.735391700000001</v>
       </c>
       <c r="C180" t="s">
+        <v>567</v>
+      </c>
+      <c r="D180" t="s">
+        <v>568</v>
+      </c>
+      <c r="E180" t="s">
         <v>569</v>
       </c>
-      <c r="D180" t="s">
+      <c r="F180" t="s">
         <v>570</v>
-      </c>
-      <c r="E180" t="s">
-        <v>571</v>
-      </c>
-      <c r="F180" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6017,16 +6905,16 @@
         <v>30.663675099999999</v>
       </c>
       <c r="C181" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D181" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E181" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F181" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6037,16 +6925,16 @@
         <v>29.553145799999999</v>
       </c>
       <c r="C182" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D182" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E182" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F182" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6057,16 +6945,16 @@
         <v>29.575051299999998</v>
       </c>
       <c r="C183" t="s">
+        <v>575</v>
+      </c>
+      <c r="D183" t="s">
+        <v>576</v>
+      </c>
+      <c r="E183" t="s">
         <v>577</v>
       </c>
-      <c r="D183" t="s">
+      <c r="F183" t="s">
         <v>578</v>
-      </c>
-      <c r="E183" t="s">
-        <v>579</v>
-      </c>
-      <c r="F183" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6077,16 +6965,16 @@
         <v>30.632974999999998</v>
       </c>
       <c r="C184" t="s">
+        <v>579</v>
+      </c>
+      <c r="D184" t="s">
+        <v>580</v>
+      </c>
+      <c r="E184" t="s">
         <v>581</v>
       </c>
-      <c r="D184" t="s">
+      <c r="F184" t="s">
         <v>582</v>
-      </c>
-      <c r="E184" t="s">
-        <v>583</v>
-      </c>
-      <c r="F184" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6097,16 +6985,16 @@
         <v>30.663594</v>
       </c>
       <c r="C185" t="s">
+        <v>583</v>
+      </c>
+      <c r="D185" t="s">
+        <v>584</v>
+      </c>
+      <c r="E185" t="s">
         <v>585</v>
       </c>
-      <c r="D185" t="s">
+      <c r="F185" t="s">
         <v>586</v>
-      </c>
-      <c r="E185" t="s">
-        <v>587</v>
-      </c>
-      <c r="F185" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6117,16 +7005,16 @@
         <v>30.663306500000001</v>
       </c>
       <c r="C186" t="s">
-        <v>589</v>
-      </c>
-      <c r="D186" t="s">
-        <v>590</v>
+        <v>587</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>1013</v>
       </c>
       <c r="E186" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F186" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6137,16 +7025,16 @@
         <v>30.630379999999999</v>
       </c>
       <c r="C187" t="s">
+        <v>589</v>
+      </c>
+      <c r="D187" t="s">
+        <v>590</v>
+      </c>
+      <c r="E187" t="s">
+        <v>591</v>
+      </c>
+      <c r="F187" t="s">
         <v>592</v>
-      </c>
-      <c r="D187" t="s">
-        <v>593</v>
-      </c>
-      <c r="E187" t="s">
-        <v>594</v>
-      </c>
-      <c r="F187" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6157,16 +7045,16 @@
         <v>30.5491855</v>
       </c>
       <c r="C188" t="s">
+        <v>593</v>
+      </c>
+      <c r="D188" t="s">
+        <v>594</v>
+      </c>
+      <c r="E188" t="s">
+        <v>595</v>
+      </c>
+      <c r="F188" t="s">
         <v>596</v>
-      </c>
-      <c r="D188" t="s">
-        <v>597</v>
-      </c>
-      <c r="E188" t="s">
-        <v>598</v>
-      </c>
-      <c r="F188" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6177,16 +7065,16 @@
         <v>30.252012400000002</v>
       </c>
       <c r="C189" t="s">
+        <v>597</v>
+      </c>
+      <c r="D189" t="s">
+        <v>598</v>
+      </c>
+      <c r="E189" t="s">
+        <v>599</v>
+      </c>
+      <c r="F189" t="s">
         <v>600</v>
-      </c>
-      <c r="D189" t="s">
-        <v>601</v>
-      </c>
-      <c r="E189" t="s">
-        <v>602</v>
-      </c>
-      <c r="F189" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6197,16 +7085,16 @@
         <v>31.240769799999999</v>
       </c>
       <c r="C190" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D190" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E190" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F190" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6217,16 +7105,16 @@
         <v>31.2290736</v>
       </c>
       <c r="C191" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D191" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E191" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F191" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6237,16 +7125,16 @@
         <v>32.047328</v>
       </c>
       <c r="C192" t="s">
+        <v>607</v>
+      </c>
+      <c r="D192" t="s">
+        <v>608</v>
+      </c>
+      <c r="E192" t="s">
+        <v>609</v>
+      </c>
+      <c r="F192" t="s">
         <v>610</v>
-      </c>
-      <c r="D192" t="s">
-        <v>611</v>
-      </c>
-      <c r="E192" t="s">
-        <v>612</v>
-      </c>
-      <c r="F192" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6257,16 +7145,16 @@
         <v>32.240146600000003</v>
       </c>
       <c r="C193" t="s">
+        <v>611</v>
+      </c>
+      <c r="D193" t="s">
+        <v>612</v>
+      </c>
+      <c r="E193" t="s">
+        <v>613</v>
+      </c>
+      <c r="F193" t="s">
         <v>614</v>
-      </c>
-      <c r="D193" t="s">
-        <v>615</v>
-      </c>
-      <c r="E193" t="s">
-        <v>616</v>
-      </c>
-      <c r="F193" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6277,16 +7165,16 @@
         <v>36.067386200000001</v>
       </c>
       <c r="C194" t="s">
+        <v>615</v>
+      </c>
+      <c r="D194" t="s">
+        <v>616</v>
+      </c>
+      <c r="E194" t="s">
+        <v>617</v>
+      </c>
+      <c r="F194" t="s">
         <v>618</v>
-      </c>
-      <c r="D194" t="s">
-        <v>619</v>
-      </c>
-      <c r="E194" t="s">
-        <v>620</v>
-      </c>
-      <c r="F194" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -6297,16 +7185,16 @@
         <v>36.675215700000003</v>
       </c>
       <c r="C195" t="s">
+        <v>619</v>
+      </c>
+      <c r="D195" t="s">
+        <v>620</v>
+      </c>
+      <c r="E195" t="s">
+        <v>621</v>
+      </c>
+      <c r="F195" t="s">
         <v>622</v>
-      </c>
-      <c r="D195" t="s">
-        <v>623</v>
-      </c>
-      <c r="E195" t="s">
-        <v>624</v>
-      </c>
-      <c r="F195" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6317,16 +7205,16 @@
         <v>36.444561399999998</v>
       </c>
       <c r="C196" t="s">
+        <v>623</v>
+      </c>
+      <c r="D196" t="s">
+        <v>624</v>
+      </c>
+      <c r="E196" t="s">
+        <v>625</v>
+      </c>
+      <c r="F196" t="s">
         <v>626</v>
-      </c>
-      <c r="D196" t="s">
-        <v>627</v>
-      </c>
-      <c r="E196" t="s">
-        <v>628</v>
-      </c>
-      <c r="F196" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6337,16 +7225,16 @@
         <v>34.211982399999997</v>
       </c>
       <c r="C197" t="s">
+        <v>627</v>
+      </c>
+      <c r="D197" t="s">
+        <v>628</v>
+      </c>
+      <c r="E197" t="s">
+        <v>629</v>
+      </c>
+      <c r="F197" t="s">
         <v>630</v>
-      </c>
-      <c r="D197" t="s">
-        <v>631</v>
-      </c>
-      <c r="E197" t="s">
-        <v>632</v>
-      </c>
-      <c r="F197" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6357,16 +7245,16 @@
         <v>36.077583300000001</v>
       </c>
       <c r="C198" t="s">
+        <v>631</v>
+      </c>
+      <c r="D198" t="s">
+        <v>632</v>
+      </c>
+      <c r="E198" t="s">
+        <v>633</v>
+      </c>
+      <c r="F198" t="s">
         <v>634</v>
-      </c>
-      <c r="D198" t="s">
-        <v>635</v>
-      </c>
-      <c r="E198" t="s">
-        <v>636</v>
-      </c>
-      <c r="F198" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6377,16 +7265,16 @@
         <v>38.455846000000001</v>
       </c>
       <c r="C199" t="s">
+        <v>635</v>
+      </c>
+      <c r="D199" t="s">
+        <v>636</v>
+      </c>
+      <c r="E199" t="s">
+        <v>637</v>
+      </c>
+      <c r="F199" t="s">
         <v>638</v>
-      </c>
-      <c r="D199" t="s">
-        <v>639</v>
-      </c>
-      <c r="E199" t="s">
-        <v>640</v>
-      </c>
-      <c r="F199" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6397,16 +7285,16 @@
         <v>41.389043299999997</v>
       </c>
       <c r="C200" t="s">
+        <v>639</v>
+      </c>
+      <c r="D200" t="s">
+        <v>640</v>
+      </c>
+      <c r="E200" t="s">
+        <v>641</v>
+      </c>
+      <c r="F200" t="s">
         <v>642</v>
-      </c>
-      <c r="D200" t="s">
-        <v>643</v>
-      </c>
-      <c r="E200" t="s">
-        <v>644</v>
-      </c>
-      <c r="F200" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -6417,16 +7305,16 @@
         <v>41.363468599999997</v>
       </c>
       <c r="C201" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D201" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E201" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F201" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6437,16 +7325,16 @@
         <v>43.831507700000003</v>
       </c>
       <c r="C202" t="s">
+        <v>645</v>
+      </c>
+      <c r="D202" t="s">
+        <v>646</v>
+      </c>
+      <c r="E202" t="s">
+        <v>647</v>
+      </c>
+      <c r="F202" t="s">
         <v>648</v>
-      </c>
-      <c r="D202" t="s">
-        <v>649</v>
-      </c>
-      <c r="E202" t="s">
-        <v>650</v>
-      </c>
-      <c r="F202" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6457,16 +7345,16 @@
         <v>50.795209499999999</v>
       </c>
       <c r="C203" t="s">
+        <v>649</v>
+      </c>
+      <c r="D203" t="s">
+        <v>650</v>
+      </c>
+      <c r="E203" t="s">
+        <v>651</v>
+      </c>
+      <c r="F203" t="s">
         <v>652</v>
-      </c>
-      <c r="D203" t="s">
-        <v>653</v>
-      </c>
-      <c r="E203" t="s">
-        <v>654</v>
-      </c>
-      <c r="F203" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6477,16 +7365,16 @@
         <v>42.904829599999999</v>
       </c>
       <c r="C204" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D204" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E204" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F204" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6497,16 +7385,16 @@
         <v>42.025670699999999</v>
       </c>
       <c r="C205" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D205" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E205" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F205" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6517,16 +7405,16 @@
         <v>45.790633</v>
       </c>
       <c r="C206" t="s">
+        <v>658</v>
+      </c>
+      <c r="D206" t="s">
+        <v>659</v>
+      </c>
+      <c r="E206" t="s">
+        <v>660</v>
+      </c>
+      <c r="F206" t="s">
         <v>661</v>
-      </c>
-      <c r="D206" t="s">
-        <v>662</v>
-      </c>
-      <c r="E206" t="s">
-        <v>663</v>
-      </c>
-      <c r="F206" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6537,16 +7425,16 @@
         <v>29.992115800000001</v>
       </c>
       <c r="C207" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D207" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E207" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F207" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6557,23 +7445,1173 @@
         <v>29.9821758</v>
       </c>
       <c r="C208" t="s">
+        <v>664</v>
+      </c>
+      <c r="D208" t="s">
+        <v>665</v>
+      </c>
+      <c r="E208" t="s">
+        <v>666</v>
+      </c>
+      <c r="F208" t="s">
         <v>667</v>
       </c>
-      <c r="D208" t="s">
-        <v>668</v>
-      </c>
-      <c r="E208" t="s">
-        <v>669</v>
-      </c>
-      <c r="F208" t="s">
-        <v>670</v>
+    </row>
+    <row r="209" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>732</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>871</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>872</v>
+      </c>
+      <c r="D211" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>873</v>
+      </c>
+      <c r="D212" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>874</v>
+      </c>
+      <c r="D213" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>875</v>
+      </c>
+      <c r="D214" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>876</v>
+      </c>
+      <c r="D215" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>877</v>
+      </c>
+      <c r="D216" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>878</v>
+      </c>
+      <c r="D217" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>879</v>
+      </c>
+      <c r="D218" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>880</v>
+      </c>
+      <c r="D219" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>881</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>882</v>
+      </c>
+      <c r="D221" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>883</v>
+      </c>
+      <c r="D222" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>884</v>
+      </c>
+      <c r="D223" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>885</v>
+      </c>
+      <c r="D224" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>886</v>
+      </c>
+      <c r="D225" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>887</v>
+      </c>
+      <c r="D226" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>888</v>
+      </c>
+      <c r="D227" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>889</v>
+      </c>
+      <c r="D228" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>890</v>
+      </c>
+      <c r="D229" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>891</v>
+      </c>
+      <c r="D230" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>892</v>
+      </c>
+      <c r="D231" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>893</v>
+      </c>
+      <c r="D232" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>894</v>
+      </c>
+      <c r="D233" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>895</v>
+      </c>
+      <c r="D234" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>896</v>
+      </c>
+      <c r="D235" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>897</v>
+      </c>
+      <c r="D236" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>898</v>
+      </c>
+      <c r="D237" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>899</v>
+      </c>
+      <c r="D238" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>900</v>
+      </c>
+      <c r="D239" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>901</v>
+      </c>
+      <c r="D240" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>902</v>
+      </c>
+      <c r="D241" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>903</v>
+      </c>
+      <c r="D242" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>904</v>
+      </c>
+      <c r="D243" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>905</v>
+      </c>
+      <c r="D244" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>906</v>
+      </c>
+      <c r="D245" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>907</v>
+      </c>
+      <c r="D246" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>908</v>
+      </c>
+      <c r="D247" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>909</v>
+      </c>
+      <c r="D248" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>910</v>
+      </c>
+      <c r="D249" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>911</v>
+      </c>
+      <c r="D250" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>912</v>
+      </c>
+      <c r="D251" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>913</v>
+      </c>
+      <c r="D252" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>914</v>
+      </c>
+      <c r="D253" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>915</v>
+      </c>
+      <c r="D254" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>916</v>
+      </c>
+      <c r="D255" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>917</v>
+      </c>
+      <c r="D256" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>918</v>
+      </c>
+      <c r="D257" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>919</v>
+      </c>
+      <c r="D258" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>920</v>
+      </c>
+      <c r="D259" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>921</v>
+      </c>
+      <c r="D260" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>922</v>
+      </c>
+      <c r="D261" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>923</v>
+      </c>
+      <c r="D262" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>924</v>
+      </c>
+      <c r="D263" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>925</v>
+      </c>
+      <c r="D264" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>926</v>
+      </c>
+      <c r="D265" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>927</v>
+      </c>
+      <c r="D266" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>928</v>
+      </c>
+      <c r="D267" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>929</v>
+      </c>
+      <c r="D268" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>930</v>
+      </c>
+      <c r="D269" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>931</v>
+      </c>
+      <c r="D270" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>932</v>
+      </c>
+      <c r="D271" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>933</v>
+      </c>
+      <c r="D272" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>934</v>
+      </c>
+      <c r="D273" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>935</v>
+      </c>
+      <c r="D274" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>936</v>
+      </c>
+      <c r="D275" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>937</v>
+      </c>
+      <c r="D276" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>938</v>
+      </c>
+      <c r="D277" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>939</v>
+      </c>
+      <c r="D278" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>940</v>
+      </c>
+      <c r="D279" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>941</v>
+      </c>
+      <c r="D280" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>942</v>
+      </c>
+      <c r="D281" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>943</v>
+      </c>
+      <c r="D282" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>944</v>
+      </c>
+      <c r="D283" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>945</v>
+      </c>
+      <c r="D284" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>946</v>
+      </c>
+      <c r="D285" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>947</v>
+      </c>
+      <c r="D286" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>948</v>
+      </c>
+      <c r="D287" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>949</v>
+      </c>
+      <c r="D288" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>950</v>
+      </c>
+      <c r="D289" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>951</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>952</v>
+      </c>
+      <c r="D291" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>953</v>
+      </c>
+      <c r="D292" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>954</v>
+      </c>
+      <c r="D293" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>955</v>
+      </c>
+      <c r="D294" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>956</v>
+      </c>
+      <c r="D295" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>957</v>
+      </c>
+      <c r="D296" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>958</v>
+      </c>
+      <c r="D297" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>959</v>
+      </c>
+      <c r="D298" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>960</v>
+      </c>
+      <c r="D299" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>961</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>962</v>
+      </c>
+      <c r="D301" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
+        <v>963</v>
+      </c>
+      <c r="D302" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
+        <v>964</v>
+      </c>
+      <c r="D303" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>965</v>
+      </c>
+      <c r="D304" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C305" t="s">
+        <v>966</v>
+      </c>
+      <c r="D305" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C306" t="s">
+        <v>967</v>
+      </c>
+      <c r="D306" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C307" t="s">
+        <v>968</v>
+      </c>
+      <c r="D307" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C308" t="s">
+        <v>969</v>
+      </c>
+      <c r="D308" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C309" t="s">
+        <v>970</v>
+      </c>
+      <c r="D309" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>971</v>
+      </c>
+      <c r="D310" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
+        <v>972</v>
+      </c>
+      <c r="D311" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>973</v>
+      </c>
+      <c r="D312" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>974</v>
+      </c>
+      <c r="D313" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
+        <v>975</v>
+      </c>
+      <c r="D314" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C315" t="s">
+        <v>976</v>
+      </c>
+      <c r="D315" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C316" t="s">
+        <v>977</v>
+      </c>
+      <c r="D316" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
+        <v>978</v>
+      </c>
+      <c r="D317" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>979</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>980</v>
+      </c>
+      <c r="D319" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C320" t="s">
+        <v>981</v>
+      </c>
+      <c r="D320" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>982</v>
+      </c>
+      <c r="D321" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>983</v>
+      </c>
+      <c r="D322" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C323" t="s">
+        <v>984</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C324" t="s">
+        <v>985</v>
+      </c>
+      <c r="D324" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>986</v>
+      </c>
+      <c r="D325" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
+        <v>987</v>
+      </c>
+      <c r="D326" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>988</v>
+      </c>
+      <c r="D327" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>989</v>
+      </c>
+      <c r="D328" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C329" t="s">
+        <v>990</v>
+      </c>
+      <c r="D329" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
+        <v>991</v>
+      </c>
+      <c r="D330" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
+        <v>992</v>
+      </c>
+      <c r="D331" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C332" t="s">
+        <v>993</v>
+      </c>
+      <c r="D332" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C333" t="s">
+        <v>994</v>
+      </c>
+      <c r="D333" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C334" t="s">
+        <v>995</v>
+      </c>
+      <c r="D334" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C335" t="s">
+        <v>996</v>
+      </c>
+      <c r="D335" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C336" t="s">
+        <v>997</v>
+      </c>
+      <c r="D336" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C337" t="s">
+        <v>998</v>
+      </c>
+      <c r="D337" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C338" t="s">
+        <v>999</v>
+      </c>
+      <c r="D338" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C339" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D339" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C340" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D340" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C341" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D341" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C342" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D342" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C343" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D343" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C344" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D344" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C345" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D345" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C346" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D346" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C347" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D347" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C348" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D348" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C349" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D350" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C351" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D351" t="s">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C82" r:id="rId1" xr:uid="{F9F22590-2067-4788-9E68-DB1B92D7F9C8}"/>
+    <hyperlink ref="D318" r:id="rId2" display="https://www.google.co.uk/maps/@31.2342206,121.5074645,3a,75y,232.53h,113.94t/data=!3m8!1e1!3m6!1sAF1QipMbsInd7v7aeq_8wdHahXbdrljZE-D-kKF0ISXm!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipMbsInd7v7aeq_8wdHahXbdrljZE-D-kKF0ISXm%3Dw900-h600-k-no-pi-23.941022119753043-ya252.52769978139446-ro0-fo100!7i7680!8i3840?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D" xr:uid="{8CBD1DF3-061F-44F6-94BB-0984A6C3D7EF}"/>
+    <hyperlink ref="D323" r:id="rId3" display="https://www.google.co.uk/maps/@34.2518882,108.9296385,3a,75y,169.95h,88.69t/data=!3m8!1e1!3m6!1sCIHM0ogKEICAgIDOlpjXIw!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fgpms-cs-s%2FAB8u6HYNeNPy6OMEDAUAgpZvYieWVGlR2uYwHP1S0bOod6duNI1IEhfqRFT_rfedri_vL4dO2oCFkWWVzv3Cs_gxDIyUkh5r1lu-DLnPI056pE4K3DssAL8SAlERQMg6vFlAi8qcsLwY%3Dw900-h600-k-no-pi1.3066477161005565-ya348.95095458406905-ro0-fo100!7i8704!8i4352?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D" xr:uid="{8E21173F-54E6-4487-ACAE-32FB8D8BD67A}"/>
+    <hyperlink ref="D186" r:id="rId4" display="https://www.google.co.uk/maps/@30.6633065,104.0440364,3a,90y,59.7h,122.86t/data=!3m8!1e1!3m6!1sAF1QipOqQSFaSFF_IOqt7c0nKubH-sglyeul9MDYTpOq!2e10!3e11!6shttps:%2F%2Flh3.googleusercontent.com%2Fp%2FAF1QipOqQSFaSFF_IOqt7c0nKubH-sglyeul9MDYTpOq%3Dw900-h600-k-no-pi-32.855013032505-ya211.70491309820773-ro0-fo100!7i10240!8i5120?entry=ttu&amp;g_ep=EgoyMDI1MDQyOS4wIKXMDSoASAFQAw%3D%3D" xr:uid="{8E779D3F-B665-4F52-BFE4-83524AC37736}"/>
+    <hyperlink ref="D290" r:id="rId5" display="https://www.google.co.uk/maps/@25.1220577,121.8614543,3a,75y,51.74h,90t/data=!3m7!1e1!3m5!1sZ__Qq6cS_3OKbiTQoQNJBQ!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D0%26panoid%3DZ__Qq6cS_3OKbiTQoQNJBQ%26yaw%3D51.74191!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D" xr:uid="{CCD51980-B8A7-4BCD-8E36-878290AAD46D}"/>
+    <hyperlink ref="D300" r:id="rId6" display="https://www.google.co.uk/maps/@23.3215021,121.4649345,3a,75y,309.17h,96.77t/data=!3m7!1e1!3m5!1sRvvUdio2ctWPzfTHjIeU3g!2e0!6shttps:%2F%2Fstreetviewpixels-pa.googleapis.com%2Fv1%2Fthumbnail%3Fcb_client%3Dmaps_sv.tactile%26w%3D900%26h%3D600%26pitch%3D-6.769711222147819%26panoid%3DRvvUdio2ctWPzfTHjIeU3g%26yaw%3D309.1683285543187!7i13312!8i6656?entry=ttu&amp;g_ep=EgoyMDI1MDQzMC4xIKXMDSoASAFQAw%3D%3D" xr:uid="{9EFB4BAD-9468-489A-9868-11DAB61503AE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>